--- a/mary/newratingspread_10.18.2019.xlsx
+++ b/mary/newratingspread_10.18.2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2ab6b1fa3f0d13e/Documents/Cafeteria Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mebar\Desktop\r classroom\data-wrangling-group-session-lsc-modelers\mary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3E78AE5-978D-4E15-9B00-DC9EDE06DCDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A0FA2-3043-4ACE-9AB3-1C8B39857102}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A5D265AE-AF83-40AA-85F5-30933B50938E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Condition</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>LogRT</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E92FE-995F-4826-A280-064A52536066}">
-  <dimension ref="A1:K364"/>
+  <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +440,7 @@
     <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -471,8 +474,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -505,11 +511,11 @@
         <v>1152.2222222222222</v>
       </c>
       <c r="K2" s="1">
-        <f>LOG10(J2)</f>
+        <f t="shared" ref="K2:K65" si="0">LOG10(J2)</f>
         <v>3.061536246949716</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -529,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">ASIN(SQRT(F3))</f>
+        <f t="shared" ref="G3:G66" si="1">ASIN(SQRT(F3))</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="H3" s="1">
@@ -542,11 +548,11 @@
         <v>1391.8571428571429</v>
       </c>
       <c r="K3" s="1">
-        <f>LOG10(J3)</f>
+        <f t="shared" si="0"/>
         <v>3.14359466253556</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -566,7 +572,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2645189576252274</v>
       </c>
       <c r="H4" s="1">
@@ -579,11 +585,11 @@
         <v>1376.8181818181818</v>
       </c>
       <c r="K4" s="1">
-        <f>LOG10(J4)</f>
+        <f t="shared" si="0"/>
         <v>3.1388765925106497</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -603,7 +609,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H5" s="1">
@@ -616,11 +622,11 @@
         <v>1284.3330000000001</v>
       </c>
       <c r="K5" s="1">
-        <f>LOG10(J5)</f>
+        <f t="shared" si="0"/>
         <v>3.1086776415773931</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -640,7 +646,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H6" s="1">
@@ -653,11 +659,11 @@
         <v>1363.5454545454545</v>
       </c>
       <c r="K6" s="1">
-        <f>LOG10(J6)</f>
+        <f t="shared" si="0"/>
         <v>3.1346696199668544</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -677,7 +683,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71372437894476559</v>
       </c>
       <c r="H7" s="1">
@@ -690,11 +696,11 @@
         <v>1600.2857142857142</v>
       </c>
       <c r="K7" s="1">
-        <f>LOG10(J7)</f>
+        <f t="shared" si="0"/>
         <v>3.2041975283184652</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -714,7 +720,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0895209528525531</v>
       </c>
       <c r="H8" s="1">
@@ -727,11 +733,11 @@
         <v>1272.2857142857142</v>
       </c>
       <c r="K8" s="1">
-        <f>LOG10(J8)</f>
+        <f t="shared" si="0"/>
         <v>3.1045846507809474</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -751,7 +757,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H9" s="1">
@@ -764,11 +770,11 @@
         <v>1481</v>
       </c>
       <c r="K9" s="1">
-        <f>LOG10(J9)</f>
+        <f t="shared" si="0"/>
         <v>3.1705550585212086</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -788,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H10" s="1">
@@ -801,11 +807,11 @@
         <v>1383</v>
       </c>
       <c r="K10" s="1">
-        <f>LOG10(J10)</f>
+        <f t="shared" si="0"/>
         <v>3.1408221801093106</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -825,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H11" s="1">
@@ -838,11 +844,11 @@
         <v>1419.4285714285713</v>
       </c>
       <c r="K11" s="1">
-        <f>LOG10(J11)</f>
+        <f t="shared" si="0"/>
         <v>3.1521135428182481</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -862,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H12" s="1">
@@ -875,11 +881,11 @@
         <v>1529.1428571428571</v>
       </c>
       <c r="K12" s="1">
-        <f>LOG10(J12)</f>
+        <f t="shared" si="0"/>
         <v>3.1844480604094909</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -899,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H13" s="1">
@@ -912,11 +918,11 @@
         <v>1566.125</v>
       </c>
       <c r="K13" s="1">
-        <f>LOG10(J13)</f>
+        <f t="shared" si="0"/>
         <v>3.1948264222453817</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -936,7 +942,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H14" s="1">
@@ -949,11 +955,11 @@
         <v>1125.6669999999999</v>
       </c>
       <c r="K14" s="1">
-        <f>LOG10(J14)</f>
+        <f t="shared" si="0"/>
         <v>3.0514099345193668</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -973,7 +979,7 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0697033135295395</v>
       </c>
       <c r="H15" s="1">
@@ -986,11 +992,11 @@
         <v>1402.6923076923076</v>
       </c>
       <c r="K15" s="1">
-        <f>LOG10(J15)</f>
+        <f t="shared" si="0"/>
         <v>3.1469624153429634</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H16" s="1">
@@ -1023,7 +1029,7 @@
         <v>1205.1666666666667</v>
       </c>
       <c r="K16" s="1">
-        <f>LOG10(J16)</f>
+        <f t="shared" si="0"/>
         <v>3.0810471111502338</v>
       </c>
     </row>
@@ -1047,7 +1053,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0213290820372694</v>
       </c>
       <c r="H17" s="1">
@@ -1060,7 +1066,7 @@
         <v>1819.6363636363637</v>
       </c>
       <c r="K17" s="1">
-        <f>LOG10(J17)</f>
+        <f t="shared" si="0"/>
         <v>3.2599846071911198</v>
       </c>
     </row>
@@ -1084,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H18" s="1">
@@ -1097,7 +1103,7 @@
         <v>1862.4</v>
       </c>
       <c r="K18" s="1">
-        <f>LOG10(J18)</f>
+        <f t="shared" si="0"/>
         <v>3.2700729629697944</v>
       </c>
     </row>
@@ -1121,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H19" s="1">
@@ -1134,7 +1140,7 @@
         <v>1233.9285714285713</v>
       </c>
       <c r="K19" s="1">
-        <f>LOG10(J19)</f>
+        <f t="shared" si="0"/>
         <v>3.0912900203679978</v>
       </c>
     </row>
@@ -1158,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H20" s="1">
@@ -1171,7 +1177,7 @@
         <v>1714.5</v>
       </c>
       <c r="K20" s="1">
-        <f>LOG10(J20)</f>
+        <f t="shared" si="0"/>
         <v>3.2341374894509629</v>
       </c>
     </row>
@@ -1195,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H21" s="1">
@@ -1208,7 +1214,7 @@
         <v>1424.4545454545455</v>
       </c>
       <c r="K21" s="1">
-        <f>LOG10(J21)</f>
+        <f t="shared" si="0"/>
         <v>3.153648595398431</v>
       </c>
     </row>
@@ -1232,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H22" s="1">
@@ -1245,7 +1251,7 @@
         <v>1185</v>
       </c>
       <c r="K22" s="1">
-        <f>LOG10(J22)</f>
+        <f t="shared" si="0"/>
         <v>3.0737183503461227</v>
       </c>
     </row>
@@ -1269,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H23" s="1">
@@ -1282,7 +1288,7 @@
         <v>1339.4444444444443</v>
       </c>
       <c r="K23" s="1">
-        <f>LOG10(J23)</f>
+        <f t="shared" si="0"/>
         <v>3.1269247052741478</v>
       </c>
     </row>
@@ -1306,7 +1312,7 @@
         <v>0.8</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H24" s="1">
@@ -1319,7 +1325,7 @@
         <v>2227.8000000000002</v>
       </c>
       <c r="K24" s="1">
-        <f>LOG10(J24)</f>
+        <f t="shared" si="0"/>
         <v>3.3478761996098028</v>
       </c>
     </row>
@@ -1343,7 +1349,7 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90183225252648958</v>
       </c>
       <c r="H25" s="1">
@@ -1356,7 +1362,7 @@
         <v>2032.4615384615386</v>
       </c>
       <c r="K25" s="1">
-        <f>LOG10(J25)</f>
+        <f t="shared" si="0"/>
         <v>3.3080223359182757</v>
       </c>
     </row>
@@ -1380,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H26" s="1">
@@ -1393,7 +1399,7 @@
         <v>1324.5555555555557</v>
       </c>
       <c r="K26" s="1">
-        <f>LOG10(J26)</f>
+        <f t="shared" si="0"/>
         <v>3.1220701785375331</v>
       </c>
     </row>
@@ -1417,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H27" s="1">
@@ -1430,7 +1436,7 @@
         <v>1730.1111111111111</v>
       </c>
       <c r="K27" s="1">
-        <f>LOG10(J27)</f>
+        <f t="shared" si="0"/>
         <v>3.2380739952634121</v>
       </c>
     </row>
@@ -1454,7 +1460,7 @@
         <v>0.875</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H28" s="1">
@@ -1467,7 +1473,7 @@
         <v>1311.375</v>
       </c>
       <c r="K28" s="1">
-        <f>LOG10(J28)</f>
+        <f t="shared" si="0"/>
         <v>3.1177269000369634</v>
       </c>
     </row>
@@ -1491,7 +1497,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H29" s="1">
@@ -1504,7 +1510,7 @@
         <v>1347.1111111111111</v>
       </c>
       <c r="K29" s="1">
-        <f>LOG10(J29)</f>
+        <f t="shared" si="0"/>
         <v>3.1294034182562598</v>
       </c>
     </row>
@@ -1528,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H30" s="1">
@@ -1541,7 +1547,7 @@
         <v>1439.8</v>
       </c>
       <c r="K30" s="1">
-        <f>LOG10(J30)</f>
+        <f t="shared" si="0"/>
         <v>3.1583021692280226</v>
       </c>
     </row>
@@ -1565,7 +1571,7 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0697033135295395</v>
       </c>
       <c r="H31" s="1">
@@ -1578,7 +1584,7 @@
         <v>2093.6923076923076</v>
       </c>
       <c r="K31" s="1">
-        <f>LOG10(J31)</f>
+        <f t="shared" si="0"/>
         <v>3.3209128574335383</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
         <v>0.625</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H32" s="1">
@@ -1615,7 +1621,7 @@
         <v>1801.75</v>
       </c>
       <c r="K32" s="1">
-        <f>LOG10(J32)</f>
+        <f t="shared" si="0"/>
         <v>3.2556945307314797</v>
       </c>
     </row>
@@ -1639,7 +1645,7 @@
         <v>0.7</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99115658643119231</v>
       </c>
       <c r="H33" s="1">
@@ -1652,7 +1658,7 @@
         <v>2356</v>
       </c>
       <c r="K33" s="1">
-        <f>LOG10(J33)</f>
+        <f t="shared" si="0"/>
         <v>3.372175286115064</v>
       </c>
     </row>
@@ -1676,7 +1682,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86912220300729304</v>
       </c>
       <c r="H34" s="1">
@@ -1689,7 +1695,7 @@
         <v>2037.0833333333333</v>
       </c>
       <c r="K34" s="1">
-        <f>LOG10(J34)</f>
+        <f t="shared" si="0"/>
         <v>3.3090087955522294</v>
       </c>
     </row>
@@ -1713,7 +1719,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H35" s="1">
@@ -1726,7 +1732,7 @@
         <v>1813.8571428571429</v>
       </c>
       <c r="K35" s="1">
-        <f>LOG10(J35)</f>
+        <f t="shared" si="0"/>
         <v>3.2586030795752574</v>
       </c>
     </row>
@@ -1750,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H36" s="1">
@@ -1763,7 +1769,7 @@
         <v>1124.2</v>
       </c>
       <c r="K36" s="1">
-        <f>LOG10(J36)</f>
+        <f t="shared" si="0"/>
         <v>3.050843580956919</v>
       </c>
     </row>
@@ -1787,7 +1793,7 @@
         <v>0.6</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H37" s="1">
@@ -1800,7 +1806,7 @@
         <v>2570.8000000000002</v>
       </c>
       <c r="K37" s="1">
-        <f>LOG10(J37)</f>
+        <f t="shared" si="0"/>
         <v>3.4100682912383626</v>
       </c>
     </row>
@@ -1824,7 +1830,7 @@
         <v>0.625</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H38" s="1">
@@ -1837,7 +1843,7 @@
         <v>3095.375</v>
       </c>
       <c r="K38" s="1">
-        <f>LOG10(J38)</f>
+        <f t="shared" si="0"/>
         <v>3.4907132706631376</v>
       </c>
     </row>
@@ -1861,7 +1867,7 @@
         <v>0.75</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H39" s="1">
@@ -1874,7 +1880,7 @@
         <v>1787.75</v>
       </c>
       <c r="K39" s="1">
-        <f>LOG10(J39)</f>
+        <f t="shared" si="0"/>
         <v>3.2523067867129072</v>
       </c>
     </row>
@@ -1898,7 +1904,7 @@
         <v>0.75</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H40" s="1">
@@ -1911,7 +1917,7 @@
         <v>2072</v>
       </c>
       <c r="K40" s="1">
-        <f>LOG10(J40)</f>
+        <f t="shared" si="0"/>
         <v>3.3163897510731952</v>
       </c>
     </row>
@@ -1935,7 +1941,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93027401411547217</v>
       </c>
       <c r="H41" s="1">
@@ -1948,7 +1954,7 @@
         <v>2402.4285714285716</v>
       </c>
       <c r="K41" s="1">
-        <f>LOG10(J41)</f>
+        <f t="shared" si="0"/>
         <v>3.3806504841676079</v>
       </c>
     </row>
@@ -1972,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H42" s="1">
@@ -1985,7 +1991,7 @@
         <v>1784.3</v>
       </c>
       <c r="K42" s="1">
-        <f>LOG10(J42)</f>
+        <f t="shared" si="0"/>
         <v>3.2514678754835242</v>
       </c>
     </row>
@@ -2009,7 +2015,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H43" s="1">
@@ -2022,7 +2028,7 @@
         <v>2120.2857142857142</v>
       </c>
       <c r="K43" s="1">
-        <f>LOG10(J43)</f>
+        <f t="shared" si="0"/>
         <v>3.3263943872386443</v>
       </c>
     </row>
@@ -2046,7 +2052,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H44" s="1">
@@ -2059,7 +2065,7 @@
         <v>1874.8571428571429</v>
       </c>
       <c r="K44" s="1">
-        <f>LOG10(J44)</f>
+        <f t="shared" si="0"/>
         <v>3.2729681816997531</v>
       </c>
     </row>
@@ -2083,7 +2089,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H45" s="1">
@@ -2096,7 +2102,7 @@
         <v>2217.8571428571427</v>
       </c>
       <c r="K45" s="1">
-        <f>LOG10(J45)</f>
+        <f t="shared" si="0"/>
         <v>3.345933568834361</v>
       </c>
     </row>
@@ -2120,7 +2126,7 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H46" s="1">
@@ -2133,7 +2139,7 @@
         <v>1595.5</v>
       </c>
       <c r="K46" s="1">
-        <f>LOG10(J46)</f>
+        <f t="shared" si="0"/>
         <v>3.2028968085295291</v>
       </c>
     </row>
@@ -2157,7 +2163,7 @@
         <v>0.9</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H47" s="1">
@@ -2170,7 +2176,7 @@
         <v>2166.6</v>
       </c>
       <c r="K47" s="1">
-        <f>LOG10(J47)</f>
+        <f t="shared" si="0"/>
         <v>3.33577873881047</v>
       </c>
     </row>
@@ -2194,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H48" s="1">
@@ -2207,7 +2213,7 @@
         <v>1775.7142857142858</v>
       </c>
       <c r="K48" s="1">
-        <f>LOG10(J48)</f>
+        <f t="shared" si="0"/>
         <v>3.2493730886273879</v>
       </c>
     </row>
@@ -2231,7 +2237,7 @@
         <v>0.4</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H49" s="1">
@@ -2244,7 +2250,7 @@
         <v>2640</v>
       </c>
       <c r="K49" s="1">
-        <f>LOG10(J49)</f>
+        <f t="shared" si="0"/>
         <v>3.4216039268698313</v>
       </c>
     </row>
@@ -2268,7 +2274,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49088267828931137</v>
       </c>
       <c r="H50" s="1">
@@ -2281,7 +2287,7 @@
         <v>2666.8888888888887</v>
       </c>
       <c r="K50" s="1">
-        <f>LOG10(J50)</f>
+        <f t="shared" si="0"/>
         <v>3.4260049219712232</v>
       </c>
     </row>
@@ -2305,7 +2311,7 @@
         <v>0.4</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H51" s="1">
@@ -2318,7 +2324,7 @@
         <v>2563.6</v>
       </c>
       <c r="K51" s="1">
-        <f>LOG10(J51)</f>
+        <f t="shared" si="0"/>
         <v>3.4088502629120292</v>
       </c>
     </row>
@@ -2342,7 +2348,7 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90183225252648958</v>
       </c>
       <c r="H52" s="1">
@@ -2355,7 +2361,7 @@
         <v>2080.0769230769229</v>
       </c>
       <c r="K52" s="1">
-        <f>LOG10(J52)</f>
+        <f t="shared" si="0"/>
         <v>3.3180793958522403</v>
       </c>
     </row>
@@ -2379,7 +2385,7 @@
         <v>0.25</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52359877559829893</v>
       </c>
       <c r="H53" s="1">
@@ -2392,7 +2398,7 @@
         <v>2522.5833333333335</v>
       </c>
       <c r="K53" s="1">
-        <f>LOG10(J53)</f>
+        <f t="shared" si="0"/>
         <v>3.4018455220284851</v>
       </c>
     </row>
@@ -2416,7 +2422,7 @@
         <v>0.875</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H54" s="1">
@@ -2429,7 +2435,7 @@
         <v>1954.25</v>
       </c>
       <c r="K54" s="1">
-        <f>LOG10(J54)</f>
+        <f t="shared" si="0"/>
         <v>3.2909801206291553</v>
       </c>
     </row>
@@ -2453,7 +2459,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H55" s="1">
@@ -2466,7 +2472,7 @@
         <v>1377.4444444444443</v>
       </c>
       <c r="K55" s="1">
-        <f>LOG10(J55)</f>
+        <f t="shared" si="0"/>
         <v>3.1390740917650066</v>
       </c>
     </row>
@@ -2490,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H56" s="1">
@@ -2503,7 +2509,7 @@
         <v>1321.4285714285713</v>
       </c>
       <c r="K56" s="1">
-        <f>LOG10(J56)</f>
+        <f t="shared" si="0"/>
         <v>3.1210436927247756</v>
       </c>
     </row>
@@ -2527,7 +2533,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H57" s="1">
@@ -2540,7 +2546,7 @@
         <v>1283.2727272727273</v>
       </c>
       <c r="K57" s="1">
-        <f>LOG10(J57)</f>
+        <f t="shared" si="0"/>
         <v>3.1083189645297065</v>
       </c>
     </row>
@@ -2564,7 +2570,7 @@
         <v>0.75</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H58" s="1">
@@ -2577,7 +2583,7 @@
         <v>1815</v>
       </c>
       <c r="K58" s="1">
-        <f>LOG10(J58)</f>
+        <f t="shared" si="0"/>
         <v>3.2588766293721312</v>
       </c>
     </row>
@@ -2601,7 +2607,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H59" s="1">
@@ -2614,7 +2620,7 @@
         <v>2234</v>
       </c>
       <c r="K59" s="1">
-        <f>LOG10(J59)</f>
+        <f t="shared" si="0"/>
         <v>3.3490831687795901</v>
       </c>
     </row>
@@ -2638,7 +2644,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H60" s="1">
@@ -2651,7 +2657,7 @@
         <v>1552</v>
       </c>
       <c r="K60" s="1">
-        <f>LOG10(J60)</f>
+        <f t="shared" si="0"/>
         <v>3.1908917169221698</v>
       </c>
     </row>
@@ -2675,7 +2681,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H61" s="1">
@@ -2688,7 +2694,7 @@
         <v>1644.5555555555557</v>
       </c>
       <c r="K61" s="1">
-        <f>LOG10(J61)</f>
+        <f t="shared" si="0"/>
         <v>3.2160485491860684</v>
       </c>
     </row>
@@ -2712,7 +2718,7 @@
         <v>0.75</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H62" s="1">
@@ -2725,7 +2731,7 @@
         <v>2052.25</v>
       </c>
       <c r="K62" s="1">
-        <f>LOG10(J62)</f>
+        <f t="shared" si="0"/>
         <v>3.3122302643379866</v>
       </c>
     </row>
@@ -2749,7 +2755,7 @@
         <v>0.6</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H63" s="1">
@@ -2762,7 +2768,7 @@
         <v>2121.1999999999998</v>
       </c>
       <c r="K63" s="1">
-        <f>LOG10(J63)</f>
+        <f t="shared" si="0"/>
         <v>3.3265816184465251</v>
       </c>
     </row>
@@ -2786,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H64" s="2">
@@ -2799,7 +2805,7 @@
         <v>1390.4</v>
       </c>
       <c r="K64" s="1">
-        <f>LOG10(J64)</f>
+        <f t="shared" si="0"/>
         <v>3.1431397591045913</v>
       </c>
     </row>
@@ -2823,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H65" s="1">
@@ -2836,7 +2842,7 @@
         <v>1040.25</v>
       </c>
       <c r="K65" s="1">
-        <f>LOG10(J65)</f>
+        <f t="shared" si="0"/>
         <v>3.0171377244649848</v>
       </c>
     </row>
@@ -2860,7 +2866,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H66" s="1">
@@ -2873,7 +2879,7 @@
         <v>1129.3333333333333</v>
       </c>
       <c r="K66" s="1">
-        <f>LOG10(J66)</f>
+        <f t="shared" ref="K66:K129" si="2">LOG10(J66)</f>
         <v>3.0528221469390067</v>
       </c>
     </row>
@@ -2897,7 +2903,7 @@
         <v>0.2</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="1">ASIN(SQRT(F67))</f>
+        <f t="shared" ref="G67:G130" si="3">ASIN(SQRT(F67))</f>
         <v>0.46364760900080609</v>
       </c>
       <c r="H67" s="1">
@@ -2910,7 +2916,7 @@
         <v>2076</v>
       </c>
       <c r="K67" s="1">
-        <f>LOG10(J67)</f>
+        <f t="shared" si="2"/>
         <v>3.3172273491764201</v>
       </c>
     </row>
@@ -2934,7 +2940,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.923511478779244</v>
       </c>
       <c r="H68" s="1">
@@ -2947,7 +2953,7 @@
         <v>1376.090909090909</v>
       </c>
       <c r="K68" s="1">
-        <f>LOG10(J68)</f>
+        <f t="shared" si="2"/>
         <v>3.138647125768951</v>
       </c>
     </row>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H69" s="1">
@@ -2984,7 +2990,7 @@
         <v>1378.8</v>
       </c>
       <c r="K69" s="1">
-        <f>LOG10(J69)</f>
+        <f t="shared" si="2"/>
         <v>3.1395012747359101</v>
       </c>
     </row>
@@ -3008,7 +3014,7 @@
         <v>0.625</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H70" s="1">
@@ -3021,7 +3027,7 @@
         <v>1862.875</v>
       </c>
       <c r="K70" s="1">
-        <f>LOG10(J70)</f>
+        <f t="shared" si="2"/>
         <v>3.2701837144606358</v>
       </c>
     </row>
@@ -3045,7 +3051,7 @@
         <v>0.875</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H71" s="1">
@@ -3058,7 +3064,7 @@
         <v>1330.5</v>
       </c>
       <c r="K71" s="1">
-        <f>LOG10(J71)</f>
+        <f t="shared" si="2"/>
         <v>3.1240148788874076</v>
       </c>
     </row>
@@ -3082,7 +3088,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H72" s="1">
@@ -3095,7 +3101,7 @@
         <v>1517</v>
       </c>
       <c r="K72" s="1">
-        <f>LOG10(J72)</f>
+        <f t="shared" si="2"/>
         <v>3.1809855807867304</v>
       </c>
     </row>
@@ -3119,7 +3125,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.72972765622696634</v>
       </c>
       <c r="H73" s="1">
@@ -3132,7 +3138,7 @@
         <v>1677.6666666666667</v>
       </c>
       <c r="K73" s="1">
-        <f>LOG10(J73)</f>
+        <f t="shared" si="2"/>
         <v>3.2247056756774772</v>
       </c>
     </row>
@@ -3156,7 +3162,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H74" s="1">
@@ -3169,7 +3175,7 @@
         <v>1634.8571428571429</v>
       </c>
       <c r="K74" s="1">
-        <f>LOG10(J74)</f>
+        <f t="shared" si="2"/>
         <v>3.2134798091189682</v>
       </c>
     </row>
@@ -3193,7 +3199,7 @@
         <v>0.875</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H75" s="2">
@@ -3206,7 +3212,7 @@
         <v>921.125</v>
       </c>
       <c r="K75" s="1">
-        <f>LOG10(J75)</f>
+        <f t="shared" si="2"/>
         <v>2.9643185695308478</v>
       </c>
     </row>
@@ -3230,7 +3236,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H76" s="1">
@@ -3243,7 +3249,7 @@
         <v>1055</v>
       </c>
       <c r="K76" s="1">
-        <f>LOG10(J76)</f>
+        <f t="shared" si="2"/>
         <v>3.0232524596337114</v>
       </c>
     </row>
@@ -3267,7 +3273,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H77" s="1">
@@ -3280,7 +3286,7 @@
         <v>1257.7777777777778</v>
       </c>
       <c r="K77" s="1">
-        <f>LOG10(J77)</f>
+        <f t="shared" si="2"/>
         <v>3.099603917412928</v>
       </c>
     </row>
@@ -3304,7 +3310,7 @@
         <v>0.6</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H78" s="1">
@@ -3317,7 +3323,7 @@
         <v>878.4</v>
       </c>
       <c r="K78" s="1">
-        <f>LOG10(J78)</f>
+        <f t="shared" si="2"/>
         <v>2.9436923271060165</v>
       </c>
     </row>
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H79" s="1">
@@ -3354,7 +3360,7 @@
         <v>772</v>
       </c>
       <c r="K79" s="1">
-        <f>LOG10(J79)</f>
+        <f t="shared" si="2"/>
         <v>2.8876173003357359</v>
       </c>
     </row>
@@ -3378,7 +3384,7 @@
         <v>0.875</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H80" s="1">
@@ -3391,7 +3397,7 @@
         <v>1231.5</v>
       </c>
       <c r="K80" s="1">
-        <f>LOG10(J80)</f>
+        <f t="shared" si="2"/>
         <v>3.090434416175122</v>
       </c>
     </row>
@@ -3415,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H81" s="1">
@@ -3428,7 +3434,7 @@
         <v>1150</v>
       </c>
       <c r="K81" s="1">
-        <f>LOG10(J81)</f>
+        <f t="shared" si="2"/>
         <v>3.0606978403536118</v>
       </c>
     </row>
@@ -3452,7 +3458,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H82" s="1">
@@ -3465,7 +3471,7 @@
         <v>1076.4444444444443</v>
       </c>
       <c r="K82" s="1">
-        <f>LOG10(J82)</f>
+        <f t="shared" si="2"/>
         <v>3.031991620695671</v>
       </c>
     </row>
@@ -3489,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H83" s="1">
@@ -3502,7 +3508,7 @@
         <v>1181.25</v>
       </c>
       <c r="K83" s="1">
-        <f>LOG10(J83)</f>
+        <f t="shared" si="2"/>
         <v>3.0723418215173193</v>
       </c>
     </row>
@@ -3526,7 +3532,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H84" s="1">
@@ -3539,7 +3545,7 @@
         <v>1259.5555555555557</v>
       </c>
       <c r="K84" s="1">
-        <f>LOG10(J84)</f>
+        <f t="shared" si="2"/>
         <v>3.1002173278000793</v>
       </c>
     </row>
@@ -3563,7 +3569,7 @@
         <v>0.8</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H85" s="2">
@@ -3576,7 +3582,7 @@
         <v>1778.6</v>
       </c>
       <c r="K85" s="1">
-        <f>LOG10(J85)</f>
+        <f t="shared" si="2"/>
         <v>3.2500782879796448</v>
       </c>
     </row>
@@ -3600,7 +3606,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H86" s="1">
@@ -3613,7 +3619,7 @@
         <v>1693.8888888888889</v>
       </c>
       <c r="K86" s="1">
-        <f>LOG10(J86)</f>
+        <f t="shared" si="2"/>
         <v>3.2288849192620748</v>
       </c>
     </row>
@@ -3637,7 +3643,7 @@
         <v>0.625</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H87" s="1">
@@ -3650,7 +3656,7 @@
         <v>1707.875</v>
       </c>
       <c r="K87" s="1">
-        <f>LOG10(J87)</f>
+        <f t="shared" si="2"/>
         <v>3.2324560813431353</v>
       </c>
     </row>
@@ -3674,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H88" s="1">
@@ -3687,7 +3693,7 @@
         <v>1475.75</v>
       </c>
       <c r="K88" s="1">
-        <f>LOG10(J88)</f>
+        <f t="shared" si="2"/>
         <v>3.1690127918932323</v>
       </c>
     </row>
@@ -3711,7 +3717,7 @@
         <v>0.8</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H89" s="1">
@@ -3724,7 +3730,7 @@
         <v>1305.4000000000001</v>
       </c>
       <c r="K89" s="1">
-        <f>LOG10(J89)</f>
+        <f t="shared" si="2"/>
         <v>3.1157436083599581</v>
       </c>
     </row>
@@ -3748,7 +3754,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H90" s="1">
@@ -3761,7 +3767,7 @@
         <v>1481.8888888888889</v>
       </c>
       <c r="K90" s="1">
-        <f>LOG10(J90)</f>
+        <f t="shared" si="2"/>
         <v>3.1708156417327484</v>
       </c>
     </row>
@@ -3785,7 +3791,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H91" s="1">
@@ -3798,7 +3804,7 @@
         <v>1751.7142857142858</v>
       </c>
       <c r="K91" s="1">
-        <f>LOG10(J91)</f>
+        <f t="shared" si="2"/>
         <v>3.2434632717769585</v>
       </c>
     </row>
@@ -3822,7 +3828,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H92" s="1">
@@ -3835,7 +3841,7 @@
         <v>1590.1111111111111</v>
       </c>
       <c r="K92" s="1">
-        <f>LOG10(J92)</f>
+        <f t="shared" si="2"/>
         <v>3.2014274722804865</v>
       </c>
     </row>
@@ -3859,7 +3865,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.72972765622696634</v>
       </c>
       <c r="H93" s="1">
@@ -3872,7 +3878,7 @@
         <v>1853.1111111111111</v>
       </c>
       <c r="K93" s="1">
-        <f>LOG10(J93)</f>
+        <f t="shared" si="2"/>
         <v>3.2679014600613372</v>
       </c>
     </row>
@@ -3896,7 +3902,7 @@
         <v>0.4</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H94" s="1">
@@ -3909,7 +3915,7 @@
         <v>1985.8</v>
       </c>
       <c r="K94" s="1">
-        <f>LOG10(J94)</f>
+        <f t="shared" si="2"/>
         <v>3.2979355063596474</v>
       </c>
     </row>
@@ -3933,7 +3939,7 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.73988077437874078</v>
       </c>
       <c r="H95" s="1">
@@ -3946,7 +3952,7 @@
         <v>1680.7272727272727</v>
       </c>
       <c r="K95" s="1">
-        <f>LOG10(J95)</f>
+        <f t="shared" si="2"/>
         <v>3.2254972473128278</v>
       </c>
     </row>
@@ -3970,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H96" s="1">
@@ -3983,7 +3989,7 @@
         <v>1182.5555555555557</v>
       </c>
       <c r="K96" s="1">
-        <f>LOG10(J96)</f>
+        <f t="shared" si="2"/>
         <v>3.0728215527117206</v>
       </c>
     </row>
@@ -4007,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H97" s="1">
@@ -4020,7 +4026,7 @@
         <v>1113.8</v>
       </c>
       <c r="K97" s="1">
-        <f>LOG10(J97)</f>
+        <f t="shared" si="2"/>
         <v>3.0468072135537403</v>
       </c>
     </row>
@@ -4044,7 +4050,7 @@
         <v>0.875</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H98" s="1">
@@ -4057,7 +4063,7 @@
         <v>1380.5</v>
       </c>
       <c r="K98" s="1">
-        <f>LOG10(J98)</f>
+        <f t="shared" si="2"/>
         <v>3.1400364109752821</v>
       </c>
     </row>
@@ -4081,7 +4087,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H99" s="1">
@@ -4094,7 +4100,7 @@
         <v>1188.3333333333333</v>
       </c>
       <c r="K99" s="1">
-        <f>LOG10(J99)</f>
+        <f t="shared" si="2"/>
         <v>3.0749382794682218</v>
       </c>
     </row>
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H100" s="1">
@@ -4131,7 +4137,7 @@
         <v>1689.7142857142858</v>
       </c>
       <c r="K100" s="1">
-        <f>LOG10(J100)</f>
+        <f t="shared" si="2"/>
         <v>3.2278132758398232</v>
       </c>
     </row>
@@ -4155,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H101" s="1">
@@ -4168,7 +4174,7 @@
         <v>1625</v>
       </c>
       <c r="K101" s="1">
-        <f>LOG10(J101)</f>
+        <f t="shared" si="2"/>
         <v>3.2108533653148932</v>
       </c>
     </row>
@@ -4192,7 +4198,7 @@
         <v>0.625</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H102" s="1">
@@ -4205,7 +4211,7 @@
         <v>1214.375</v>
       </c>
       <c r="K102" s="1">
-        <f>LOG10(J102)</f>
+        <f t="shared" si="2"/>
         <v>3.084352817943858</v>
       </c>
     </row>
@@ -4229,7 +4235,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H103" s="1">
@@ -4242,7 +4248,7 @@
         <v>1805</v>
       </c>
       <c r="K103" s="1">
-        <f>LOG10(J103)</f>
+        <f t="shared" si="2"/>
         <v>3.2564772062416769</v>
       </c>
     </row>
@@ -4266,7 +4272,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H104" s="1">
@@ -4279,7 +4285,7 @@
         <v>1591.2857142857142</v>
       </c>
       <c r="K104" s="1">
-        <f>LOG10(J104)</f>
+        <f t="shared" si="2"/>
         <v>3.2017481639315646</v>
       </c>
     </row>
@@ -4303,7 +4309,7 @@
         <v>0.8</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H105" s="1">
@@ -4316,7 +4322,7 @@
         <v>2043.7</v>
       </c>
       <c r="K105" s="1">
-        <f>LOG10(J105)</f>
+        <f t="shared" si="2"/>
         <v>3.3104171449329374</v>
       </c>
     </row>
@@ -4340,7 +4346,7 @@
         <v>0.8</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H106" s="1">
@@ -4353,7 +4359,7 @@
         <v>1647.6</v>
       </c>
       <c r="K106" s="1">
-        <f>LOG10(J106)</f>
+        <f t="shared" si="2"/>
         <v>3.2168517832843797</v>
       </c>
     </row>
@@ -4377,7 +4383,7 @@
         <v>0.2</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46364760900080609</v>
       </c>
       <c r="H107" s="1">
@@ -4390,7 +4396,7 @@
         <v>1904.6</v>
       </c>
       <c r="K107" s="1">
-        <f>LOG10(J107)</f>
+        <f t="shared" si="2"/>
         <v>3.2798037799941038</v>
       </c>
     </row>
@@ -4414,7 +4420,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H108" s="1">
@@ -4427,7 +4433,7 @@
         <v>2457.2857142857142</v>
       </c>
       <c r="K108" s="1">
-        <f>LOG10(J108)</f>
+        <f t="shared" si="2"/>
         <v>3.3904556558384988</v>
       </c>
     </row>
@@ -4451,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H109" s="1">
@@ -4464,7 +4470,7 @@
         <v>1975</v>
       </c>
       <c r="K109" s="1">
-        <f>LOG10(J109)</f>
+        <f t="shared" si="2"/>
         <v>3.2955670999624789</v>
       </c>
     </row>
@@ -4488,7 +4494,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H110" s="1">
@@ -4501,7 +4507,7 @@
         <v>1513.1666666666667</v>
       </c>
       <c r="K110" s="1">
-        <f>LOG10(J110)</f>
+        <f t="shared" si="2"/>
         <v>3.1798867657146932</v>
       </c>
     </row>
@@ -4525,7 +4531,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86912220300729304</v>
       </c>
       <c r="H111" s="1">
@@ -4538,7 +4544,7 @@
         <v>2310.3333333333335</v>
       </c>
       <c r="K111" s="1">
-        <f>LOG10(J111)</f>
+        <f t="shared" si="2"/>
         <v>3.3636746441274314</v>
       </c>
     </row>
@@ -4562,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H112" s="1">
@@ -4575,7 +4581,7 @@
         <v>1261.3333333333333</v>
       </c>
       <c r="K112" s="1">
-        <f>LOG10(J112)</f>
+        <f t="shared" si="2"/>
         <v>3.1008298730100927</v>
       </c>
     </row>
@@ -4599,7 +4605,7 @@
         <v>0.875</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H113" s="1">
@@ -4612,7 +4618,7 @@
         <v>1557.375</v>
       </c>
       <c r="K113" s="1">
-        <f>LOG10(J113)</f>
+        <f t="shared" si="2"/>
         <v>3.1923931988375971</v>
       </c>
     </row>
@@ -4636,7 +4642,7 @@
         <v>0.75</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H114" s="1">
@@ -4649,7 +4655,7 @@
         <v>1228.5</v>
       </c>
       <c r="K114" s="1">
-        <f>LOG10(J114)</f>
+        <f t="shared" si="2"/>
         <v>3.0893751608160995</v>
       </c>
     </row>
@@ -4673,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H115" s="1">
@@ -4686,7 +4692,7 @@
         <v>798.5</v>
       </c>
       <c r="K115" s="1">
-        <f>LOG10(J115)</f>
+        <f t="shared" si="2"/>
         <v>2.9022749204745018</v>
       </c>
     </row>
@@ -4710,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H116" s="1">
@@ -4723,7 +4729,7 @@
         <v>1068.2222222222222</v>
       </c>
       <c r="K116" s="1">
-        <f>LOG10(J116)</f>
+        <f t="shared" si="2"/>
         <v>3.0286616083533033</v>
       </c>
     </row>
@@ -4747,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H117" s="1">
@@ -4760,7 +4766,7 @@
         <v>1275.5</v>
       </c>
       <c r="K117" s="1">
-        <f>LOG10(J117)</f>
+        <f t="shared" si="2"/>
         <v>3.1056804629458088</v>
       </c>
     </row>
@@ -4784,7 +4790,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H118" s="1">
@@ -4797,7 +4803,7 @@
         <v>1700.3333333333333</v>
       </c>
       <c r="K118" s="1">
-        <f>LOG10(J118)</f>
+        <f t="shared" si="2"/>
         <v>3.2305340688115245</v>
       </c>
     </row>
@@ -4821,7 +4827,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H119" s="1">
@@ -4834,7 +4840,7 @@
         <v>1348</v>
       </c>
       <c r="K119" s="1">
-        <f>LOG10(J119)</f>
+        <f t="shared" si="2"/>
         <v>3.129689892199301</v>
       </c>
     </row>
@@ -4858,7 +4864,7 @@
         <v>0.6</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H120" s="1">
@@ -4871,7 +4877,7 @@
         <v>1948.6</v>
       </c>
       <c r="K120" s="1">
-        <f>LOG10(J120)</f>
+        <f t="shared" si="2"/>
         <v>3.2897226982137981</v>
       </c>
     </row>
@@ -4895,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H121" s="1">
@@ -4908,7 +4914,7 @@
         <v>1325.3</v>
       </c>
       <c r="K121" s="1">
-        <f>LOG10(J121)</f>
+        <f t="shared" si="2"/>
         <v>3.1223141979688065</v>
       </c>
     </row>
@@ -4932,7 +4938,7 @@
         <v>0.4</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H122" s="1">
@@ -4945,7 +4951,7 @@
         <v>1446.2</v>
       </c>
       <c r="K122" s="1">
-        <f>LOG10(J122)</f>
+        <f t="shared" si="2"/>
         <v>3.1602283571978584</v>
       </c>
     </row>
@@ -4969,7 +4975,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H123" s="1">
@@ -4982,7 +4988,7 @@
         <v>1429.4285714285713</v>
       </c>
       <c r="K123" s="1">
-        <f>LOG10(J123)</f>
+        <f t="shared" si="2"/>
         <v>3.1551624585331335</v>
       </c>
     </row>
@@ -5006,7 +5012,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H124" s="1">
@@ -5019,7 +5025,7 @@
         <v>1254.9285714285713</v>
       </c>
       <c r="K124" s="1">
-        <f>LOG10(J124)</f>
+        <f t="shared" si="2"/>
         <v>3.0986190071579021</v>
       </c>
     </row>
@@ -5043,7 +5049,7 @@
         <v>0.5</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H125" s="1">
@@ -5056,7 +5062,7 @@
         <v>2030.75</v>
       </c>
       <c r="K125" s="1">
-        <f>LOG10(J125)</f>
+        <f t="shared" si="2"/>
         <v>3.3076564619063822</v>
       </c>
     </row>
@@ -5080,7 +5086,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H126" s="1">
@@ -5093,7 +5099,7 @@
         <v>2019.7777777777778</v>
       </c>
       <c r="K126" s="1">
-        <f>LOG10(J126)</f>
+        <f t="shared" si="2"/>
         <v>3.3053035896476972</v>
       </c>
     </row>
@@ -5117,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H127" s="1">
@@ -5130,7 +5136,7 @@
         <v>1139.1428571428571</v>
       </c>
       <c r="K127" s="1">
-        <f>LOG10(J127)</f>
+        <f t="shared" si="2"/>
         <v>3.0565781913121186</v>
       </c>
     </row>
@@ -5154,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H128" s="1">
@@ -5167,7 +5173,7 @@
         <v>1333.2222222222222</v>
       </c>
       <c r="K128" s="1">
-        <f>LOG10(J128)</f>
+        <f t="shared" si="2"/>
         <v>3.1249025438934241</v>
       </c>
     </row>
@@ -5191,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H129" s="1">
@@ -5204,7 +5210,7 @@
         <v>1123.75</v>
       </c>
       <c r="K129" s="1">
-        <f>LOG10(J129)</f>
+        <f t="shared" si="2"/>
         <v>3.050669704741285</v>
       </c>
     </row>
@@ -5228,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H130" s="1">
@@ -5241,7 +5247,7 @@
         <v>1034</v>
       </c>
       <c r="K130" s="1">
-        <f>LOG10(J130)</f>
+        <f t="shared" ref="K130:K193" si="4">LOG10(J130)</f>
         <v>3.0145205387579237</v>
       </c>
     </row>
@@ -5265,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G194" si="2">ASIN(SQRT(F131))</f>
+        <f t="shared" ref="G131:G194" si="5">ASIN(SQRT(F131))</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="H131" s="1">
@@ -5278,7 +5284,7 @@
         <v>1220.9000000000001</v>
       </c>
       <c r="K131" s="1">
-        <f>LOG10(J131)</f>
+        <f t="shared" si="4"/>
         <v>3.0866800937346244</v>
       </c>
     </row>
@@ -5302,7 +5308,7 @@
         <v>0.75</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H132" s="1">
@@ -5315,7 +5321,7 @@
         <v>1212.375</v>
       </c>
       <c r="K132" s="1">
-        <f>LOG10(J132)</f>
+        <f t="shared" si="4"/>
         <v>3.0836369723392751</v>
       </c>
     </row>
@@ -5339,7 +5345,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H133" s="1">
@@ -5352,7 +5358,7 @@
         <v>1955.8571428571429</v>
       </c>
       <c r="K133" s="1">
-        <f>LOG10(J133)</f>
+        <f t="shared" si="4"/>
         <v>3.2913371304441257</v>
       </c>
     </row>
@@ -5376,7 +5382,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H134" s="1">
@@ -5389,7 +5395,7 @@
         <v>1838.5</v>
       </c>
       <c r="K134" s="1">
-        <f>LOG10(J134)</f>
+        <f t="shared" si="4"/>
         <v>3.2644636342048812</v>
       </c>
     </row>
@@ -5413,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H135" s="1">
@@ -5426,7 +5432,7 @@
         <v>1190.5</v>
       </c>
       <c r="K135" s="1">
-        <f>LOG10(J135)</f>
+        <f t="shared" si="4"/>
         <v>3.0757293997408985</v>
       </c>
     </row>
@@ -5450,7 +5456,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H136" s="1">
@@ -5463,7 +5469,7 @@
         <v>2014</v>
       </c>
       <c r="K136" s="1">
-        <f>LOG10(J136)</f>
+        <f t="shared" si="4"/>
         <v>3.3040594662175993</v>
       </c>
     </row>
@@ -5487,7 +5493,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H137" s="1">
@@ -5500,7 +5506,7 @@
         <v>2117.7142857142858</v>
       </c>
       <c r="K137" s="1">
-        <f>LOG10(J137)</f>
+        <f t="shared" si="4"/>
         <v>3.3258673662965843</v>
       </c>
     </row>
@@ -5524,7 +5530,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0895209528525531</v>
       </c>
       <c r="H138" s="1">
@@ -5537,7 +5543,7 @@
         <v>1708.7857142857142</v>
       </c>
       <c r="K138" s="1">
-        <f>LOG10(J138)</f>
+        <f t="shared" si="4"/>
         <v>3.2326876045942381</v>
       </c>
     </row>
@@ -5561,7 +5567,7 @@
         <v>0.75</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H139" s="1">
@@ -5574,7 +5580,7 @@
         <v>1239</v>
       </c>
       <c r="K139" s="1">
-        <f>LOG10(J139)</f>
+        <f t="shared" si="4"/>
         <v>3.0930713063760633</v>
       </c>
     </row>
@@ -5598,7 +5604,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H140" s="1">
@@ -5611,7 +5617,7 @@
         <v>1289.8888888888889</v>
       </c>
       <c r="K140" s="1">
-        <f>LOG10(J140)</f>
+        <f t="shared" si="4"/>
         <v>3.1105523017560581</v>
       </c>
     </row>
@@ -5635,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H141" s="1">
@@ -5648,7 +5654,7 @@
         <v>1484.5</v>
       </c>
       <c r="K141" s="1">
-        <f>LOG10(J141)</f>
+        <f t="shared" si="4"/>
         <v>3.1715802019320636</v>
       </c>
     </row>
@@ -5672,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H142" s="1">
@@ -5685,7 +5691,7 @@
         <v>1247.125</v>
       </c>
       <c r="K142" s="1">
-        <f>LOG10(J142)</f>
+        <f t="shared" si="4"/>
         <v>3.0959099852263767</v>
       </c>
     </row>
@@ -5709,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H143" s="1">
@@ -5722,7 +5728,7 @@
         <v>1224</v>
       </c>
       <c r="K143" s="1">
-        <f>LOG10(J143)</f>
+        <f t="shared" si="4"/>
         <v>3.0877814178095422</v>
       </c>
     </row>
@@ -5746,7 +5752,7 @@
         <v>0.875</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H144" s="1">
@@ -5759,7 +5765,7 @@
         <v>1863.625</v>
       </c>
       <c r="K144" s="1">
-        <f>LOG10(J144)</f>
+        <f t="shared" si="4"/>
         <v>3.270358527752371</v>
       </c>
     </row>
@@ -5783,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H145" s="1">
@@ -5796,7 +5802,7 @@
         <v>1147</v>
       </c>
       <c r="K145" s="1">
-        <f>LOG10(J145)</f>
+        <f t="shared" si="4"/>
         <v>3.0595634179012676</v>
       </c>
     </row>
@@ -5820,7 +5826,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3002465638163236</v>
       </c>
       <c r="H146" s="1">
@@ -5833,7 +5839,7 @@
         <v>1508.8571428571429</v>
       </c>
       <c r="K146" s="1">
-        <f>LOG10(J146)</f>
+        <f t="shared" si="4"/>
         <v>3.1786481231382191</v>
       </c>
     </row>
@@ -5857,7 +5863,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H147" s="1">
@@ -5870,7 +5876,7 @@
         <v>1183.5555555555557</v>
       </c>
       <c r="K147" s="1">
-        <f>LOG10(J147)</f>
+        <f t="shared" si="4"/>
         <v>3.0731886483275788</v>
       </c>
     </row>
@@ -5894,7 +5900,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H148" s="1">
@@ -5907,7 +5913,7 @@
         <v>1984.8571428571429</v>
       </c>
       <c r="K148" s="1">
-        <f>LOG10(J148)</f>
+        <f t="shared" si="4"/>
         <v>3.2977292545240795</v>
       </c>
     </row>
@@ -5931,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H149" s="1">
@@ -5944,7 +5950,7 @@
         <v>1272.5</v>
       </c>
       <c r="K149" s="1">
-        <f>LOG10(J149)</f>
+        <f t="shared" si="4"/>
         <v>3.1046577910087962</v>
       </c>
     </row>
@@ -5968,7 +5974,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H150" s="1">
@@ -5981,7 +5987,7 @@
         <v>2017.3333333333333</v>
       </c>
       <c r="K150" s="1">
-        <f>LOG10(J150)</f>
+        <f t="shared" si="4"/>
         <v>3.3047776646314868</v>
       </c>
     </row>
@@ -6005,7 +6011,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.277953555066321</v>
       </c>
       <c r="H151" s="1">
@@ -6018,7 +6024,7 @@
         <v>2435.75</v>
       </c>
       <c r="K151" s="1">
-        <f>LOG10(J151)</f>
+        <f t="shared" si="4"/>
         <v>3.3866327112218544</v>
       </c>
     </row>
@@ -6042,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H152" s="1">
@@ -6055,7 +6061,7 @@
         <v>1385</v>
       </c>
       <c r="K152" s="1">
-        <f>LOG10(J152)</f>
+        <f t="shared" si="4"/>
         <v>3.1414497734004674</v>
       </c>
     </row>
@@ -6079,7 +6085,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H153" s="1">
@@ -6092,7 +6098,7 @@
         <v>1231.3333333333333</v>
       </c>
       <c r="K153" s="1">
-        <f>LOG10(J153)</f>
+        <f t="shared" si="4"/>
         <v>3.09037563638456</v>
       </c>
     </row>
@@ -6116,7 +6122,7 @@
         <v>0.75</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H154" s="1">
@@ -6129,7 +6135,7 @@
         <v>2067.5</v>
       </c>
       <c r="K154" s="1">
-        <f>LOG10(J154)</f>
+        <f t="shared" si="4"/>
         <v>3.3154455182245841</v>
       </c>
     </row>
@@ -6153,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H155" s="1">
@@ -6166,7 +6172,7 @@
         <v>1448.4444444444443</v>
       </c>
       <c r="K155" s="1">
-        <f>LOG10(J155)</f>
+        <f t="shared" si="4"/>
         <v>3.1609018423537818</v>
       </c>
     </row>
@@ -6190,7 +6196,7 @@
         <v>0.8</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H156" s="1">
@@ -6203,7 +6209,7 @@
         <v>1122</v>
       </c>
       <c r="K156" s="1">
-        <f>LOG10(J156)</f>
+        <f t="shared" si="4"/>
         <v>3.0499928569201424</v>
       </c>
     </row>
@@ -6227,7 +6233,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H157" s="1">
@@ -6240,7 +6246,7 @@
         <v>1193.4444444444443</v>
       </c>
       <c r="K157" s="1">
-        <f>LOG10(J157)</f>
+        <f t="shared" si="4"/>
         <v>3.0768022071443801</v>
       </c>
     </row>
@@ -6264,7 +6270,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H158" s="1">
@@ -6277,7 +6283,7 @@
         <v>1889.2857142857142</v>
       </c>
       <c r="K158" s="1">
-        <f>LOG10(J158)</f>
+        <f t="shared" si="4"/>
         <v>3.2762976406929667</v>
       </c>
     </row>
@@ -6301,7 +6307,7 @@
         <v>0.75</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H159" s="1">
@@ -6314,7 +6320,7 @@
         <v>1439.375</v>
       </c>
       <c r="K159" s="1">
-        <f>LOG10(J159)</f>
+        <f t="shared" si="4"/>
         <v>3.1581739553083064</v>
       </c>
     </row>
@@ -6338,7 +6344,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H160" s="1">
@@ -6351,7 +6357,7 @@
         <v>1561.1428571428571</v>
       </c>
       <c r="K160" s="1">
-        <f>LOG10(J160)</f>
+        <f t="shared" si="4"/>
         <v>3.1934426463232004</v>
       </c>
     </row>
@@ -6375,7 +6381,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H161" s="1">
@@ -6388,7 +6394,7 @@
         <v>1710.2857142857142</v>
       </c>
       <c r="K161" s="1">
-        <f>LOG10(J161)</f>
+        <f t="shared" si="4"/>
         <v>3.2330686681538969</v>
       </c>
     </row>
@@ -6412,7 +6418,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H162" s="1">
@@ -6425,7 +6431,7 @@
         <v>1607.4444444444443</v>
       </c>
       <c r="K162" s="1">
-        <f>LOG10(J162)</f>
+        <f t="shared" si="4"/>
         <v>3.206135972023537</v>
       </c>
     </row>
@@ -6449,7 +6455,7 @@
         <v>0.8</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H163" s="1">
@@ -6462,7 +6468,7 @@
         <v>1297.5999999999999</v>
       </c>
       <c r="K163" s="1">
-        <f>LOG10(J163)</f>
+        <f t="shared" si="4"/>
         <v>3.113140836867081</v>
       </c>
     </row>
@@ -6486,7 +6492,7 @@
         <v>0.625</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H164" s="1">
@@ -6499,7 +6505,7 @@
         <v>1977</v>
       </c>
       <c r="K164" s="1">
-        <f>LOG10(J164)</f>
+        <f t="shared" si="4"/>
         <v>3.2960066693136723</v>
       </c>
     </row>
@@ -6523,7 +6529,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H165" s="1">
@@ -6536,7 +6542,7 @@
         <v>1777.5555555555557</v>
       </c>
       <c r="K165" s="1">
-        <f>LOG10(J165)</f>
+        <f t="shared" si="4"/>
         <v>3.2498231830131536</v>
       </c>
     </row>
@@ -6560,7 +6566,7 @@
         <v>0.875</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H166" s="1">
@@ -6573,7 +6579,7 @@
         <v>1154.875</v>
       </c>
       <c r="K166" s="1">
-        <f>LOG10(J166)</f>
+        <f t="shared" si="4"/>
         <v>3.0625349801172992</v>
       </c>
     </row>
@@ -6597,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H167" s="1">
@@ -6610,7 +6616,7 @@
         <v>1527.3</v>
       </c>
       <c r="K167" s="1">
-        <f>LOG10(J167)</f>
+        <f t="shared" si="4"/>
         <v>3.1839243517570006</v>
       </c>
     </row>
@@ -6634,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H168" s="1">
@@ -6647,7 +6653,7 @@
         <v>1446.5</v>
       </c>
       <c r="K168" s="1">
-        <f>LOG10(J168)</f>
+        <f t="shared" si="4"/>
         <v>3.1603184379840017</v>
       </c>
     </row>
@@ -6671,7 +6677,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H169" s="1">
@@ -6684,7 +6690,7 @@
         <v>1399.8888888888889</v>
       </c>
       <c r="K169" s="1">
-        <f>LOG10(J169)</f>
+        <f t="shared" si="4"/>
         <v>3.146093566494371</v>
       </c>
     </row>
@@ -6708,7 +6714,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H170" s="1">
@@ -6721,7 +6727,7 @@
         <v>1769</v>
       </c>
       <c r="K170" s="1">
-        <f>LOG10(J170)</f>
+        <f t="shared" si="4"/>
         <v>3.2477278329097232</v>
       </c>
     </row>
@@ -6745,7 +6751,7 @@
         <v>0.875</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H171" s="1">
@@ -6758,7 +6764,7 @@
         <v>1625.625</v>
       </c>
       <c r="K171" s="1">
-        <f>LOG10(J171)</f>
+        <f t="shared" si="4"/>
         <v>3.211020369539948</v>
       </c>
     </row>
@@ -6782,7 +6788,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H172" s="1">
@@ -6795,7 +6801,7 @@
         <v>1597.8888888888889</v>
       </c>
       <c r="K172" s="1">
-        <f>LOG10(J172)</f>
+        <f t="shared" si="4"/>
         <v>3.203546576842724</v>
       </c>
     </row>
@@ -6819,7 +6825,7 @@
         <v>0.5</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H173" s="1">
@@ -6832,7 +6838,7 @@
         <v>1776.125</v>
       </c>
       <c r="K173" s="1">
-        <f>LOG10(J173)</f>
+        <f t="shared" si="4"/>
         <v>3.249473527264596</v>
       </c>
     </row>
@@ -6856,7 +6862,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H174" s="1">
@@ -6869,7 +6875,7 @@
         <v>2281.8571428571427</v>
       </c>
       <c r="K174" s="1">
-        <f>LOG10(J174)</f>
+        <f t="shared" si="4"/>
         <v>3.3582884516462208</v>
       </c>
     </row>
@@ -6893,7 +6899,7 @@
         <v>0.5</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H175" s="1">
@@ -6906,7 +6912,7 @@
         <v>2103.3333333333335</v>
       </c>
       <c r="K175" s="1">
-        <f>LOG10(J175)</f>
+        <f t="shared" si="4"/>
         <v>3.3229081045244717</v>
       </c>
     </row>
@@ -6930,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H176" s="1">
@@ -6943,7 +6949,7 @@
         <v>981.71428571428567</v>
       </c>
       <c r="K176" s="1">
-        <f>LOG10(J176)</f>
+        <f t="shared" si="4"/>
         <v>2.9919851108089288</v>
       </c>
     </row>
@@ -6967,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H177" s="1">
@@ -6980,7 +6986,7 @@
         <v>1307.6666666666667</v>
       </c>
       <c r="K177" s="1">
-        <f>LOG10(J177)</f>
+        <f t="shared" si="4"/>
         <v>3.1164970534098737</v>
       </c>
     </row>
@@ -7004,7 +7010,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H178" s="1">
@@ -7017,7 +7023,7 @@
         <v>1621.83</v>
       </c>
       <c r="K178" s="1">
-        <f>LOG10(J178)</f>
+        <f t="shared" si="4"/>
         <v>3.210005329572291</v>
       </c>
     </row>
@@ -7041,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H179" s="1">
@@ -7054,7 +7060,7 @@
         <v>994.85699999999997</v>
       </c>
       <c r="K179" s="1">
-        <f>LOG10(J179)</f>
+        <f t="shared" si="4"/>
         <v>2.9977606600682405</v>
       </c>
     </row>
@@ -7078,7 +7084,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H180" s="1">
@@ -7091,7 +7097,7 @@
         <v>1351.3333333333333</v>
       </c>
       <c r="K180" s="1">
-        <f>LOG10(J180)</f>
+        <f t="shared" si="4"/>
         <v>3.1307624896373274</v>
       </c>
     </row>
@@ -7115,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H181" s="1">
@@ -7128,7 +7134,7 @@
         <v>1563.4444444444443</v>
       </c>
       <c r="K181" s="1">
-        <f>LOG10(J181)</f>
+        <f t="shared" si="4"/>
         <v>3.1940824535994921</v>
       </c>
     </row>
@@ -7152,7 +7158,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H182" s="1">
@@ -7165,7 +7171,7 @@
         <v>1385.3333333333333</v>
       </c>
       <c r="K182" s="1">
-        <f>LOG10(J182)</f>
+        <f t="shared" si="4"/>
         <v>3.1415542841654776</v>
       </c>
     </row>
@@ -7189,7 +7195,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H183" s="1">
@@ -7202,7 +7208,7 @@
         <v>1821.8571428571429</v>
       </c>
       <c r="K183" s="1">
-        <f>LOG10(J183)</f>
+        <f t="shared" si="4"/>
         <v>3.2605143196725286</v>
       </c>
     </row>
@@ -7226,7 +7232,7 @@
         <v>0.9</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H184" s="1">
@@ -7239,7 +7245,7 @@
         <v>1122.9000000000001</v>
       </c>
       <c r="K184" s="1">
-        <f>LOG10(J184)</f>
+        <f t="shared" si="4"/>
         <v>3.0503410818340844</v>
       </c>
     </row>
@@ -7263,7 +7269,7 @@
         <v>0.8</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H185" s="1">
@@ -7276,7 +7282,7 @@
         <v>1706.8</v>
       </c>
       <c r="K185" s="1">
-        <f>LOG10(J185)</f>
+        <f t="shared" si="4"/>
         <v>3.2321826341872746</v>
       </c>
     </row>
@@ -7300,7 +7306,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G186" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H186" s="1">
@@ -7313,7 +7319,7 @@
         <v>1431.5714285714287</v>
       </c>
       <c r="K186" s="1">
-        <f>LOG10(J186)</f>
+        <f t="shared" si="4"/>
         <v>3.1558130221169667</v>
       </c>
     </row>
@@ -7337,7 +7343,7 @@
         <v>0.5</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H187" s="1">
@@ -7350,7 +7356,7 @@
         <v>2257.1666666666665</v>
       </c>
       <c r="K187" s="1">
-        <f>LOG10(J187)</f>
+        <f t="shared" si="4"/>
         <v>3.3535636280814245</v>
       </c>
     </row>
@@ -7374,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H188" s="1">
@@ -7387,7 +7393,7 @@
         <v>1248.67</v>
       </c>
       <c r="K188" s="1">
-        <f>LOG10(J188)</f>
+        <f t="shared" si="4"/>
         <v>3.0964476776732726</v>
       </c>
     </row>
@@ -7411,7 +7417,7 @@
         <v>0.75</v>
       </c>
       <c r="G189" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H189" s="1">
@@ -7424,7 +7430,7 @@
         <v>1589.5</v>
       </c>
       <c r="K189" s="1">
-        <f>LOG10(J189)</f>
+        <f t="shared" si="4"/>
         <v>3.2012605322507919</v>
       </c>
     </row>
@@ -7448,7 +7454,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G190" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H190" s="1">
@@ -7461,7 +7467,7 @@
         <v>2243.3333333333335</v>
       </c>
       <c r="K190" s="1">
-        <f>LOG10(J190)</f>
+        <f t="shared" si="4"/>
         <v>3.3508938095043144</v>
       </c>
     </row>
@@ -7485,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H191" s="1">
@@ -7498,7 +7504,7 @@
         <v>1561.4285714285713</v>
       </c>
       <c r="K191" s="1">
-        <f>LOG10(J191)</f>
+        <f t="shared" si="4"/>
         <v>3.1935221219354459</v>
       </c>
     </row>
@@ -7522,7 +7528,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G192" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H192" s="1">
@@ -7535,7 +7541,7 @@
         <v>2370</v>
       </c>
       <c r="K192" s="1">
-        <f>LOG10(J192)</f>
+        <f t="shared" si="4"/>
         <v>3.374748346010104</v>
       </c>
     </row>
@@ -7559,7 +7565,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H193" s="1">
@@ -7572,7 +7578,7 @@
         <v>2484.6666666666665</v>
       </c>
       <c r="K193" s="1">
-        <f>LOG10(J193)</f>
+        <f t="shared" si="4"/>
         <v>3.3952681336981585</v>
       </c>
     </row>
@@ -7596,7 +7602,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61547970867038726</v>
       </c>
       <c r="H194" s="1">
@@ -7609,7 +7615,7 @@
         <v>2659.3333333333335</v>
       </c>
       <c r="K194" s="1">
-        <f>LOG10(J194)</f>
+        <f t="shared" ref="K194:K257" si="6">LOG10(J194)</f>
         <v>3.4247727772541583</v>
       </c>
     </row>
@@ -7633,7 +7639,7 @@
         <v>0.375</v>
       </c>
       <c r="G195" s="1">
-        <f t="shared" ref="G195:G258" si="3">ASIN(SQRT(F195))</f>
+        <f t="shared" ref="G195:G258" si="7">ASIN(SQRT(F195))</f>
         <v>0.65905803582640898</v>
       </c>
       <c r="H195" s="1">
@@ -7646,7 +7652,7 @@
         <v>2676.625</v>
       </c>
       <c r="K195" s="1">
-        <f>LOG10(J195)</f>
+        <f t="shared" si="6"/>
         <v>3.427587530006992</v>
       </c>
     </row>
@@ -7670,7 +7676,7 @@
         <v>0.7</v>
       </c>
       <c r="G196" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99115658643119231</v>
       </c>
       <c r="H196" s="1">
@@ -7683,7 +7689,7 @@
         <v>2114</v>
       </c>
       <c r="K196" s="1">
-        <f>LOG10(J196)</f>
+        <f t="shared" si="6"/>
         <v>3.3251049829714074</v>
       </c>
     </row>
@@ -7707,7 +7713,7 @@
         <v>0.6</v>
       </c>
       <c r="G197" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H197" s="1">
@@ -7720,7 +7726,7 @@
         <v>2825.6</v>
       </c>
       <c r="K197" s="1">
-        <f>LOG10(J197)</f>
+        <f t="shared" si="6"/>
         <v>3.4511106818974744</v>
       </c>
     </row>
@@ -7744,7 +7750,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2645189576252274</v>
       </c>
       <c r="H198" s="1">
@@ -7757,7 +7763,7 @@
         <v>1806.090909090909</v>
       </c>
       <c r="K198" s="1">
-        <f>LOG10(J198)</f>
+        <f t="shared" si="6"/>
         <v>3.2567396066213847</v>
       </c>
     </row>
@@ -7781,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H199" s="1">
@@ -7794,7 +7800,7 @@
         <v>1688.1</v>
       </c>
       <c r="K199" s="1">
-        <f>LOG10(J199)</f>
+        <f t="shared" si="6"/>
         <v>3.2273981698736551</v>
       </c>
     </row>
@@ -7818,7 +7824,7 @@
         <v>0.8</v>
       </c>
       <c r="G200" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H200" s="1">
@@ -7831,7 +7837,7 @@
         <v>2081</v>
       </c>
       <c r="K200" s="1">
-        <f>LOG10(J200)</f>
+        <f t="shared" si="6"/>
         <v>3.318272080211627</v>
       </c>
     </row>
@@ -7855,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H201" s="1">
@@ -7868,7 +7874,7 @@
         <v>1883</v>
       </c>
       <c r="K201" s="1">
-        <f>LOG10(J201)</f>
+        <f t="shared" si="6"/>
         <v>3.274850320016665</v>
       </c>
     </row>
@@ -7892,7 +7898,7 @@
         <v>0.9</v>
       </c>
       <c r="G202" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H202" s="1">
@@ -7905,7 +7911,7 @@
         <v>1502.6</v>
       </c>
       <c r="K202" s="1">
-        <f>LOG10(J202)</f>
+        <f t="shared" si="6"/>
         <v>3.1768433845037389</v>
       </c>
     </row>
@@ -7929,7 +7935,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H203" s="1">
@@ -7942,7 +7948,7 @@
         <v>2701</v>
       </c>
       <c r="K203" s="1">
-        <f>LOG10(J203)</f>
+        <f t="shared" si="6"/>
         <v>3.4315245841874509</v>
       </c>
     </row>
@@ -7966,7 +7972,7 @@
         <v>0.9</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H204" s="1">
@@ -7979,7 +7985,7 @@
         <v>1416.7</v>
       </c>
       <c r="K204" s="1">
-        <f>LOG10(J204)</f>
+        <f t="shared" si="6"/>
         <v>3.1512778939041231</v>
       </c>
     </row>
@@ -8003,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H205" s="1">
@@ -8016,7 +8022,7 @@
         <v>1235.25</v>
       </c>
       <c r="K205" s="1">
-        <f>LOG10(J205)</f>
+        <f t="shared" si="6"/>
         <v>3.0917548625614546</v>
       </c>
     </row>
@@ -8040,7 +8046,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G206" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H206" s="1">
@@ -8053,7 +8059,7 @@
         <v>3516.3333333333335</v>
       </c>
       <c r="K206" s="1">
-        <f>LOG10(J206)</f>
+        <f t="shared" si="6"/>
         <v>3.5460900376092264</v>
       </c>
     </row>
@@ -8077,7 +8083,7 @@
         <v>0.8</v>
       </c>
       <c r="G207" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H207" s="1">
@@ -8090,7 +8096,7 @@
         <v>3033.5</v>
       </c>
       <c r="K207" s="1">
-        <f>LOG10(J207)</f>
+        <f t="shared" si="6"/>
         <v>3.4819439992800669</v>
       </c>
     </row>
@@ -8114,7 +8120,7 @@
         <v>0.6</v>
       </c>
       <c r="G208" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H208" s="1">
@@ -8127,7 +8133,7 @@
         <v>3259.6</v>
       </c>
       <c r="K208" s="1">
-        <f>LOG10(J208)</f>
+        <f t="shared" si="6"/>
         <v>3.5131643091319984</v>
       </c>
     </row>
@@ -8151,7 +8157,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G209" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86912220300729304</v>
       </c>
       <c r="H209" s="1">
@@ -8164,7 +8170,7 @@
         <v>3168.3333333333335</v>
       </c>
       <c r="K209" s="1">
-        <f>LOG10(J209)</f>
+        <f t="shared" si="6"/>
         <v>3.5008308664817993</v>
       </c>
     </row>
@@ -8188,7 +8194,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G210" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2645189576252274</v>
       </c>
       <c r="H210" s="1">
@@ -8201,7 +8207,7 @@
         <v>1898.909090909091</v>
       </c>
       <c r="K210" s="1">
-        <f>LOG10(J210)</f>
+        <f t="shared" si="6"/>
         <v>3.2785041736566631</v>
       </c>
     </row>
@@ -8225,7 +8231,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H211" s="1">
@@ -8238,7 +8244,7 @@
         <v>1791.3333333333333</v>
       </c>
       <c r="K211" s="1">
-        <f>LOG10(J211)</f>
+        <f t="shared" si="6"/>
         <v>3.2531764073774871</v>
       </c>
     </row>
@@ -8262,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H212" s="1">
@@ -8275,7 +8281,7 @@
         <v>1969.8571428571429</v>
       </c>
       <c r="K212" s="1">
-        <f>LOG10(J212)</f>
+        <f t="shared" si="6"/>
         <v>3.2944347315836828</v>
       </c>
     </row>
@@ -8299,7 +8305,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="G213" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.923511478779244</v>
       </c>
       <c r="H213" s="1">
@@ -8312,7 +8318,7 @@
         <v>3759.2727272727275</v>
       </c>
       <c r="K213" s="1">
-        <f>LOG10(J213)</f>
+        <f t="shared" si="6"/>
         <v>3.5751038340014096</v>
       </c>
     </row>
@@ -8336,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H214" s="1">
@@ -8349,7 +8355,7 @@
         <v>1198.5714285714287</v>
       </c>
       <c r="K214" s="1">
-        <f>LOG10(J214)</f>
+        <f t="shared" si="6"/>
         <v>3.0786639208144435</v>
       </c>
     </row>
@@ -8373,7 +8379,7 @@
         <v>0.9</v>
       </c>
       <c r="G215" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H215" s="1">
@@ -8386,7 +8392,7 @@
         <v>1197.5</v>
       </c>
       <c r="K215" s="1">
-        <f>LOG10(J215)</f>
+        <f t="shared" si="6"/>
         <v>3.0782755220866007</v>
       </c>
     </row>
@@ -8410,7 +8416,7 @@
         <v>0.8</v>
       </c>
       <c r="G216" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H216" s="1">
@@ -8423,7 +8429,7 @@
         <v>1111.2</v>
       </c>
       <c r="K216" s="1">
-        <f>LOG10(J216)</f>
+        <f t="shared" si="6"/>
         <v>3.0457922327295592</v>
       </c>
     </row>
@@ -8447,7 +8453,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G217" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H217" s="1">
@@ -8460,7 +8466,7 @@
         <v>1689.6666666666667</v>
       </c>
       <c r="K217" s="1">
-        <f>LOG10(J217)</f>
+        <f t="shared" si="6"/>
         <v>3.2278010365037395</v>
       </c>
     </row>
@@ -8484,7 +8490,7 @@
         <v>0.9</v>
       </c>
       <c r="G218" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H218" s="1">
@@ -8497,7 +8503,7 @@
         <v>1829.4</v>
       </c>
       <c r="K218" s="1">
-        <f>LOG10(J218)</f>
+        <f t="shared" si="6"/>
         <v>3.2623086747490242</v>
       </c>
     </row>
@@ -8521,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H219" s="1">
@@ -8534,7 +8540,7 @@
         <v>1356.75</v>
       </c>
       <c r="K219" s="1">
-        <f>LOG10(J219)</f>
+        <f t="shared" si="6"/>
         <v>3.1324998302515139</v>
       </c>
     </row>
@@ -8558,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H220" s="1">
@@ -8571,7 +8577,7 @@
         <v>1086.5</v>
       </c>
       <c r="K220" s="1">
-        <f>LOG10(J220)</f>
+        <f t="shared" si="6"/>
         <v>3.0360297306565434</v>
       </c>
     </row>
@@ -8595,7 +8601,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G221" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H221" s="1">
@@ -8608,7 +8614,7 @@
         <v>1890.3333333333333</v>
       </c>
       <c r="K221" s="1">
-        <f>LOG10(J221)</f>
+        <f t="shared" si="6"/>
         <v>3.2765383925663363</v>
       </c>
     </row>
@@ -8632,7 +8638,7 @@
         <v>0.75</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H222" s="1">
@@ -8645,7 +8651,7 @@
         <v>1240.375</v>
       </c>
       <c r="K222" s="1">
-        <f>LOG10(J222)</f>
+        <f t="shared" si="6"/>
         <v>3.0935530043635291</v>
       </c>
     </row>
@@ -8669,7 +8675,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G223" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.56394264136062888</v>
       </c>
       <c r="H223" s="1">
@@ -8682,7 +8688,7 @@
         <v>1620</v>
       </c>
       <c r="K223" s="1">
-        <f>LOG10(J223)</f>
+        <f t="shared" si="6"/>
         <v>3.2095150145426308</v>
       </c>
     </row>
@@ -8706,7 +8712,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G224" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H224" s="1">
@@ -8719,7 +8725,7 @@
         <v>1215.4545454545455</v>
       </c>
       <c r="K224" s="1">
-        <f>LOG10(J224)</f>
+        <f t="shared" si="6"/>
         <v>3.0847387221037592</v>
       </c>
     </row>
@@ -8743,7 +8749,7 @@
         <v>0.6</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H225" s="1">
@@ -8756,7 +8762,7 @@
         <v>4567.7</v>
       </c>
       <c r="K225" s="1">
-        <f>LOG10(J225)</f>
+        <f t="shared" si="6"/>
         <v>3.6596975723343212</v>
       </c>
     </row>
@@ -8780,7 +8786,7 @@
         <v>0.4</v>
       </c>
       <c r="G226" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H226" s="1">
@@ -8793,7 +8799,7 @@
         <v>2133</v>
       </c>
       <c r="K226" s="1">
-        <f>LOG10(J226)</f>
+        <f t="shared" si="6"/>
         <v>3.3289908554494287</v>
       </c>
     </row>
@@ -8817,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H227" s="1">
@@ -8830,7 +8836,7 @@
         <v>2296.6</v>
       </c>
       <c r="K227" s="1">
-        <f>LOG10(J227)</f>
+        <f t="shared" si="6"/>
         <v>3.361085360488826</v>
       </c>
     </row>
@@ -8854,7 +8860,7 @@
         <v>0.9</v>
       </c>
       <c r="G228" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H228" s="1">
@@ -8867,7 +8873,7 @@
         <v>1322.4</v>
       </c>
       <c r="K228" s="1">
-        <f>LOG10(J228)</f>
+        <f t="shared" si="6"/>
         <v>3.1213628405633913</v>
       </c>
     </row>
@@ -8891,7 +8897,7 @@
         <v>0.8</v>
       </c>
       <c r="G229" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H229" s="1">
@@ -8904,7 +8910,7 @@
         <v>1188</v>
       </c>
       <c r="K229" s="1">
-        <f>LOG10(J229)</f>
+        <f t="shared" si="6"/>
         <v>3.0748164406451748</v>
       </c>
     </row>
@@ -8928,7 +8934,7 @@
         <v>0.7</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99115658643119231</v>
       </c>
       <c r="H230" s="1">
@@ -8941,7 +8947,7 @@
         <v>1189.7</v>
       </c>
       <c r="K230" s="1">
-        <f>LOG10(J230)</f>
+        <f t="shared" si="6"/>
         <v>3.0754374615856128</v>
       </c>
     </row>
@@ -8965,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="G231" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H231" s="1">
@@ -8978,7 +8984,7 @@
         <v>1770.3330000000001</v>
       </c>
       <c r="K231" s="1">
-        <f>LOG10(J231)</f>
+        <f t="shared" si="6"/>
         <v>3.2480549649268289</v>
       </c>
     </row>
@@ -9002,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="G232" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H232" s="1">
@@ -9015,7 +9021,7 @@
         <v>1770</v>
       </c>
       <c r="K232" s="1">
-        <f>LOG10(J232)</f>
+        <f t="shared" si="6"/>
         <v>3.2479732663618068</v>
       </c>
     </row>
@@ -9039,7 +9045,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G233" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2645189576252274</v>
       </c>
       <c r="H233" s="1">
@@ -9052,7 +9058,7 @@
         <v>1639.2727272727273</v>
       </c>
       <c r="K233" s="1">
-        <f>LOG10(J233)</f>
+        <f t="shared" si="6"/>
         <v>3.2146512135438061</v>
       </c>
     </row>
@@ -9076,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H234" s="1">
@@ -9089,7 +9095,7 @@
         <v>2049</v>
       </c>
       <c r="K234" s="1">
-        <f>LOG10(J234)</f>
+        <f t="shared" si="6"/>
         <v>3.3115419584011949</v>
       </c>
     </row>
@@ -9113,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H235" s="1">
@@ -9126,7 +9132,7 @@
         <v>1503</v>
       </c>
       <c r="K235" s="1">
-        <f>LOG10(J235)</f>
+        <f t="shared" si="6"/>
         <v>3.1769589805869081</v>
       </c>
     </row>
@@ -9150,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="G236" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H236" s="1">
@@ -9163,7 +9169,7 @@
         <v>1501.75</v>
       </c>
       <c r="K236" s="1">
-        <f>LOG10(J236)</f>
+        <f t="shared" si="6"/>
         <v>3.1765976406193928</v>
       </c>
     </row>
@@ -9187,7 +9193,7 @@
         <v>0.8</v>
       </c>
       <c r="G237" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H237" s="1">
@@ -9200,7 +9206,7 @@
         <v>1991.7</v>
       </c>
       <c r="K237" s="1">
-        <f>LOG10(J237)</f>
+        <f t="shared" si="6"/>
         <v>3.2992239233665828</v>
       </c>
     </row>
@@ -9224,7 +9230,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G238" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.277953555066321</v>
       </c>
       <c r="H238" s="1">
@@ -9237,7 +9243,7 @@
         <v>1669.6666666666667</v>
       </c>
       <c r="K238" s="1">
-        <f>LOG10(J238)</f>
+        <f t="shared" si="6"/>
         <v>3.222629776969852</v>
       </c>
     </row>
@@ -9261,7 +9267,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G239" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H239" s="1">
@@ -9274,7 +9280,7 @@
         <v>1303.2857142857142</v>
       </c>
       <c r="K239" s="1">
-        <f>LOG10(J239)</f>
+        <f t="shared" si="6"/>
         <v>3.1150396348495377</v>
       </c>
     </row>
@@ -9298,7 +9304,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G240" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H240" s="1">
@@ -9311,7 +9317,7 @@
         <v>1481.6363636363637</v>
       </c>
       <c r="K240" s="1">
-        <f>LOG10(J240)</f>
+        <f t="shared" si="6"/>
         <v>3.1707416283097922</v>
       </c>
     </row>
@@ -9335,7 +9341,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G241" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H241" s="1">
@@ -9348,7 +9354,7 @@
         <v>1419</v>
       </c>
       <c r="K241" s="1">
-        <f>LOG10(J241)</f>
+        <f t="shared" si="6"/>
         <v>3.1519823954574742</v>
       </c>
     </row>
@@ -9372,7 +9378,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G242" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H242" s="1">
@@ -9385,7 +9391,7 @@
         <v>2182.6363636363635</v>
       </c>
       <c r="K242" s="1">
-        <f>LOG10(J242)</f>
+        <f t="shared" si="6"/>
         <v>3.3389813864553957</v>
       </c>
     </row>
@@ -9409,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="G243" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H243" s="1">
@@ -9422,7 +9428,7 @@
         <v>1696</v>
       </c>
       <c r="K243" s="1">
-        <f>LOG10(J243)</f>
+        <f t="shared" si="6"/>
         <v>3.229425847920695</v>
       </c>
     </row>
@@ -9446,7 +9452,7 @@
         <v>0.9</v>
       </c>
       <c r="G244" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H244" s="1">
@@ -9459,7 +9465,7 @@
         <v>1343.9</v>
       </c>
       <c r="K244" s="1">
-        <f>LOG10(J244)</f>
+        <f t="shared" si="6"/>
         <v>3.1283669539380821</v>
       </c>
     </row>
@@ -9483,7 +9489,7 @@
         <v>0.8</v>
       </c>
       <c r="G245" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H245" s="1">
@@ -9496,7 +9502,7 @@
         <v>1849.4</v>
       </c>
       <c r="K245" s="1">
-        <f>LOG10(J245)</f>
+        <f t="shared" si="6"/>
         <v>3.2670308532927654</v>
       </c>
     </row>
@@ -9520,7 +9526,7 @@
         <v>0.75</v>
       </c>
       <c r="G246" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H246" s="1">
@@ -9533,7 +9539,7 @@
         <v>2032.25</v>
       </c>
       <c r="K246" s="1">
-        <f>LOG10(J246)</f>
+        <f t="shared" si="6"/>
         <v>3.3079771322250884</v>
       </c>
     </row>
@@ -9557,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H247" s="1">
@@ -9570,7 +9576,7 @@
         <v>1233.5709999999999</v>
       </c>
       <c r="K247" s="1">
-        <f>LOG10(J247)</f>
+        <f t="shared" si="6"/>
         <v>3.0911641510051822</v>
       </c>
     </row>
@@ -9594,7 +9600,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G248" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H248" s="1">
@@ -9607,7 +9613,7 @@
         <v>2465</v>
       </c>
       <c r="K248" s="1">
-        <f>LOG10(J248)</f>
+        <f t="shared" si="6"/>
         <v>3.3918169236132489</v>
       </c>
     </row>
@@ -9631,7 +9637,7 @@
         <v>0.75</v>
       </c>
       <c r="G249" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H249" s="1">
@@ -9644,7 +9650,7 @@
         <v>1859.6666666666667</v>
       </c>
       <c r="K249" s="1">
-        <f>LOG10(J249)</f>
+        <f t="shared" si="6"/>
         <v>3.2694351066907066</v>
       </c>
     </row>
@@ -9668,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="G250" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H250" s="1">
@@ -9681,7 +9687,7 @@
         <v>1201.5</v>
       </c>
       <c r="K250" s="1">
-        <f>LOG10(J250)</f>
+        <f t="shared" si="6"/>
         <v>3.0797237751399189</v>
       </c>
     </row>
@@ -9705,7 +9711,7 @@
         <v>0.9</v>
       </c>
       <c r="G251" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2490457723982542</v>
       </c>
       <c r="H251" s="1">
@@ -9718,7 +9724,7 @@
         <v>2043.3</v>
       </c>
       <c r="K251" s="1">
-        <f>LOG10(J251)</f>
+        <f t="shared" si="6"/>
         <v>3.310332135002271</v>
       </c>
     </row>
@@ -9742,7 +9748,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G252" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H252" s="1">
@@ -9755,7 +9761,7 @@
         <v>1262.1666666666667</v>
       </c>
       <c r="K252" s="1">
-        <f>LOG10(J252)</f>
+        <f t="shared" si="6"/>
         <v>3.101116706440969</v>
       </c>
     </row>
@@ -9779,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H253" s="1">
@@ -9792,7 +9798,7 @@
         <v>1074.8</v>
       </c>
       <c r="K253" s="1">
-        <f>LOG10(J253)</f>
+        <f t="shared" si="6"/>
         <v>3.031327657761131</v>
       </c>
     </row>
@@ -9816,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H254" s="1">
@@ -9829,7 +9835,7 @@
         <v>2189.8000000000002</v>
       </c>
       <c r="K254" s="1">
-        <f>LOG10(J254)</f>
+        <f t="shared" si="6"/>
         <v>3.3404044514324553</v>
       </c>
     </row>
@@ -9853,7 +9859,7 @@
         <v>0.7</v>
       </c>
       <c r="G255" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99115658643119231</v>
       </c>
       <c r="H255" s="1">
@@ -9866,7 +9872,7 @@
         <v>2055.9</v>
       </c>
       <c r="K255" s="1">
-        <f>LOG10(J255)</f>
+        <f t="shared" si="6"/>
         <v>3.3130019865370572</v>
       </c>
     </row>
@@ -9890,7 +9896,7 @@
         <v>0.4</v>
       </c>
       <c r="G256" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H256" s="1">
@@ -9903,7 +9909,7 @@
         <v>1820.2</v>
       </c>
       <c r="K256" s="1">
-        <f>LOG10(J256)</f>
+        <f t="shared" si="6"/>
         <v>3.2601191100313733</v>
       </c>
     </row>
@@ -9927,7 +9933,7 @@
         <v>0.6</v>
       </c>
       <c r="G257" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H257" s="1">
@@ -9940,7 +9946,7 @@
         <v>1937.2</v>
       </c>
       <c r="K257" s="1">
-        <f>LOG10(J257)</f>
+        <f t="shared" si="6"/>
         <v>3.2871744603745019</v>
       </c>
     </row>
@@ -9964,7 +9970,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G258" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H258" s="1">
@@ -9977,7 +9983,7 @@
         <v>1381.3333333333333</v>
       </c>
       <c r="K258" s="1">
-        <f>LOG10(J258)</f>
+        <f t="shared" ref="K258:K321" si="8">LOG10(J258)</f>
         <v>3.1402984920175143</v>
       </c>
     </row>
@@ -10001,7 +10007,7 @@
         <v>0.8</v>
       </c>
       <c r="G259" s="1">
-        <f t="shared" ref="G259:G322" si="4">ASIN(SQRT(F259))</f>
+        <f t="shared" ref="G259:G322" si="9">ASIN(SQRT(F259))</f>
         <v>1.1071487177940904</v>
       </c>
       <c r="H259" s="1">
@@ -10014,7 +10020,7 @@
         <v>1328.8</v>
       </c>
       <c r="K259" s="1">
-        <f>LOG10(J259)</f>
+        <f t="shared" si="8"/>
         <v>3.1234596194433379</v>
       </c>
     </row>
@@ -10038,7 +10044,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G260" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H260" s="1">
@@ -10051,7 +10057,7 @@
         <v>2411.7272727272725</v>
       </c>
       <c r="K260" s="1">
-        <f>LOG10(J260)</f>
+        <f t="shared" si="8"/>
         <v>3.3823281945765702</v>
       </c>
     </row>
@@ -10075,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="G261" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H261" s="1">
@@ -10088,7 +10094,7 @@
         <v>1577.3333333333333</v>
       </c>
       <c r="K261" s="1">
-        <f>LOG10(J261)</f>
+        <f t="shared" si="8"/>
         <v>3.1979234812362303</v>
       </c>
     </row>
@@ -10112,7 +10118,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G262" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H262" s="1">
@@ -10125,7 +10131,7 @@
         <v>1201.5833333333333</v>
       </c>
       <c r="K262" s="1">
-        <f>LOG10(J262)</f>
+        <f t="shared" si="8"/>
         <v>3.0797538957822934</v>
       </c>
     </row>
@@ -10149,7 +10155,7 @@
         <v>0.625</v>
       </c>
       <c r="G263" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H263" s="1">
@@ -10162,7 +10168,7 @@
         <v>1365.75</v>
       </c>
       <c r="K263" s="1">
-        <f>LOG10(J263)</f>
+        <f t="shared" si="8"/>
         <v>3.1353712091866202</v>
       </c>
     </row>
@@ -10184,7 +10190,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G264" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H264" s="1"/>
@@ -10195,7 +10201,7 @@
         <v>1696.9166666666667</v>
       </c>
       <c r="K264" s="1">
-        <f>LOG10(J264)</f>
+        <f t="shared" si="8"/>
         <v>3.2296605152136912</v>
       </c>
     </row>
@@ -10217,7 +10223,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G265" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H265" s="1"/>
@@ -10228,7 +10234,7 @@
         <v>2442.7142857142858</v>
       </c>
       <c r="K265" s="1">
-        <f>LOG10(J265)</f>
+        <f t="shared" si="8"/>
         <v>3.3878726722971328</v>
       </c>
     </row>
@@ -10250,7 +10256,7 @@
         <v>0.75</v>
       </c>
       <c r="G266" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H266" s="1"/>
@@ -10261,7 +10267,7 @@
         <v>2789.6666666666665</v>
       </c>
       <c r="K266" s="1">
-        <f>LOG10(J266)</f>
+        <f t="shared" si="8"/>
         <v>3.4455523131388919</v>
       </c>
     </row>
@@ -10283,7 +10289,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G267" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H267" s="1"/>
@@ -10294,7 +10300,7 @@
         <v>5644.1428571428569</v>
       </c>
       <c r="K267" s="1">
-        <f>LOG10(J267)</f>
+        <f t="shared" si="8"/>
         <v>3.7515979975138611</v>
       </c>
     </row>
@@ -10316,7 +10322,7 @@
         <v>0.75</v>
       </c>
       <c r="G268" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H268" s="1"/>
@@ -10327,7 +10333,7 @@
         <v>1687.25</v>
       </c>
       <c r="K268" s="1">
-        <f>LOG10(J268)</f>
+        <f t="shared" si="8"/>
         <v>3.2271794368134268</v>
       </c>
     </row>
@@ -10349,7 +10355,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G269" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H269" s="1"/>
@@ -10360,7 +10366,7 @@
         <v>1218.3333333333333</v>
       </c>
       <c r="K269" s="1">
-        <f>LOG10(J269)</f>
+        <f t="shared" si="8"/>
         <v>3.0857661265742169</v>
       </c>
     </row>
@@ -10382,7 +10388,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G270" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.85707194785013086</v>
       </c>
       <c r="H270" s="1"/>
@@ -10393,7 +10399,7 @@
         <v>1782.5714285714287</v>
       </c>
       <c r="K270" s="1">
-        <f>LOG10(J270)</f>
+        <f t="shared" si="8"/>
         <v>3.2510469412800878</v>
       </c>
     </row>
@@ -10415,7 +10421,7 @@
         <v>0.5</v>
       </c>
       <c r="G271" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H271" s="1"/>
@@ -10426,7 +10432,7 @@
         <v>2272.5</v>
       </c>
       <c r="K271" s="1">
-        <f>LOG10(J271)</f>
+        <f t="shared" si="8"/>
         <v>3.3565038918940049</v>
       </c>
     </row>
@@ -10448,7 +10454,7 @@
         <v>0.8</v>
       </c>
       <c r="G272" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H272" s="1"/>
@@ -10459,7 +10465,7 @@
         <v>2779.2</v>
       </c>
       <c r="K272" s="1">
-        <f>LOG10(J272)</f>
+        <f t="shared" si="8"/>
         <v>3.4439198011030232</v>
       </c>
     </row>
@@ -10481,7 +10487,7 @@
         <v>0.75</v>
       </c>
       <c r="G273" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H273" s="1"/>
@@ -10492,7 +10498,7 @@
         <v>2032.375</v>
       </c>
       <c r="K273" s="1">
-        <f>LOG10(J273)</f>
+        <f t="shared" si="8"/>
         <v>3.3080038440670196</v>
       </c>
     </row>
@@ -10514,7 +10520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G274" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H274" s="1"/>
@@ -10525,7 +10531,7 @@
         <v>2328</v>
       </c>
       <c r="K274" s="1">
-        <f>LOG10(J274)</f>
+        <f t="shared" si="8"/>
         <v>3.3669829759778507</v>
       </c>
     </row>
@@ -10547,7 +10553,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G275" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.70167412378760374</v>
       </c>
       <c r="H275" s="1"/>
@@ -10558,7 +10564,7 @@
         <v>1986.0833333333333</v>
       </c>
       <c r="K275" s="1">
-        <f>LOG10(J275)</f>
+        <f t="shared" si="8"/>
         <v>3.2979974669426193</v>
       </c>
     </row>
@@ -10580,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="G276" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H276" s="1"/>
@@ -10591,7 +10597,7 @@
         <v>2339.5</v>
       </c>
       <c r="K276" s="1">
-        <f>LOG10(J276)</f>
+        <f t="shared" si="8"/>
         <v>3.369123049528199</v>
       </c>
     </row>
@@ -10613,7 +10619,7 @@
         <v>0.75</v>
       </c>
       <c r="G277" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H277" s="1"/>
@@ -10624,7 +10630,7 @@
         <v>1172.375</v>
       </c>
       <c r="K277" s="1">
-        <f>LOG10(J277)</f>
+        <f t="shared" si="8"/>
         <v>3.0690665488675499</v>
       </c>
     </row>
@@ -10646,7 +10652,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="G278" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.71372437894476559</v>
       </c>
       <c r="H278" s="1"/>
@@ -10657,7 +10663,7 @@
         <v>1809.7142857142858</v>
       </c>
       <c r="K278" s="1">
-        <f>LOG10(J278)</f>
+        <f t="shared" si="8"/>
         <v>3.2576100146856177</v>
       </c>
     </row>
@@ -10679,7 +10685,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="G279" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.43353790935583658</v>
       </c>
       <c r="H279" s="1"/>
@@ -10690,7 +10696,7 @@
         <v>1631.7058823529412</v>
       </c>
       <c r="K279" s="1">
-        <f>LOG10(J279)</f>
+        <f t="shared" si="8"/>
         <v>3.2126418791834319</v>
       </c>
     </row>
@@ -10712,7 +10718,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G280" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H280" s="1"/>
@@ -10723,7 +10729,7 @@
         <v>5540.1428571428569</v>
       </c>
       <c r="K280" s="1">
-        <f>LOG10(J280)</f>
+        <f t="shared" si="8"/>
         <v>3.7435209635134359</v>
       </c>
     </row>
@@ -10745,7 +10751,7 @@
         <v>0.4</v>
       </c>
       <c r="G281" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.68471920300228295</v>
       </c>
       <c r="H281" s="1"/>
@@ -10756,7 +10762,7 @@
         <v>2490</v>
       </c>
       <c r="K281" s="1">
-        <f>LOG10(J281)</f>
+        <f t="shared" si="8"/>
         <v>3.3961993470957363</v>
       </c>
     </row>
@@ -10778,7 +10784,7 @@
         <v>0.75</v>
       </c>
       <c r="G282" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H282" s="1"/>
@@ -10789,7 +10795,7 @@
         <v>1611.25</v>
       </c>
       <c r="K282" s="1">
-        <f>LOG10(J282)</f>
+        <f t="shared" si="8"/>
         <v>3.2071629303614593</v>
       </c>
     </row>
@@ -10811,7 +10817,7 @@
         <v>0.5</v>
       </c>
       <c r="G283" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H283" s="1"/>
@@ -10822,7 +10828,7 @@
         <v>2438.875</v>
       </c>
       <c r="K283" s="1">
-        <f>LOG10(J283)</f>
+        <f t="shared" si="8"/>
         <v>3.3871895419285734</v>
       </c>
     </row>
@@ -10844,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="G284" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H284" s="1"/>
@@ -10855,7 +10861,7 @@
         <v>1424.3333333333333</v>
       </c>
       <c r="K284" s="1">
-        <f>LOG10(J284)</f>
+        <f t="shared" si="8"/>
         <v>3.1536116380975341</v>
       </c>
     </row>
@@ -10877,7 +10883,7 @@
         <v>0.57142857142857095</v>
       </c>
       <c r="G285" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.85707194785013063</v>
       </c>
       <c r="H285" s="1"/>
@@ -10888,7 +10894,7 @@
         <v>2485</v>
       </c>
       <c r="K285" s="1">
-        <f>LOG10(J285)</f>
+        <f t="shared" si="8"/>
         <v>3.3953263930693511</v>
       </c>
     </row>
@@ -10910,7 +10916,7 @@
         <v>0.5</v>
       </c>
       <c r="G286" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H286" s="1"/>
@@ -10921,7 +10927,7 @@
         <v>1862.25</v>
       </c>
       <c r="K286" s="1">
-        <f>LOG10(J286)</f>
+        <f t="shared" si="8"/>
         <v>3.2700379829462642</v>
       </c>
     </row>
@@ -10943,7 +10949,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G287" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H287" s="1"/>
@@ -10954,7 +10960,7 @@
         <v>1656.5714285714287</v>
       </c>
       <c r="K287" s="1">
-        <f>LOG10(J287)</f>
+        <f t="shared" si="8"/>
         <v>3.2192101666687032</v>
       </c>
     </row>
@@ -10976,7 +10982,7 @@
         <v>0.8</v>
       </c>
       <c r="G288" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H288" s="1"/>
@@ -10987,7 +10993,7 @@
         <v>1583</v>
       </c>
       <c r="K288" s="1">
-        <f>LOG10(J288)</f>
+        <f t="shared" si="8"/>
         <v>3.199480914862356</v>
       </c>
     </row>
@@ -11009,7 +11015,7 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="G289" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.63613206280501022</v>
       </c>
       <c r="H289" s="1"/>
@@ -11020,7 +11026,7 @@
         <v>1751</v>
       </c>
       <c r="K289" s="1">
-        <f>LOG10(J289)</f>
+        <f t="shared" si="8"/>
         <v>3.2432861460834461</v>
       </c>
     </row>
@@ -11042,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="G290" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H290" s="1"/>
@@ -11053,7 +11059,7 @@
         <v>1980</v>
       </c>
       <c r="K290" s="1">
-        <f>LOG10(J290)</f>
+        <f t="shared" si="8"/>
         <v>3.2966651902615309</v>
       </c>
     </row>
@@ -11075,7 +11081,7 @@
         <v>0.25</v>
       </c>
       <c r="G291" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.52359877559829893</v>
       </c>
       <c r="H291" s="1"/>
@@ -11086,7 +11092,7 @@
         <v>2547.125</v>
       </c>
       <c r="K291" s="1">
-        <f>LOG10(J291)</f>
+        <f t="shared" si="8"/>
         <v>3.4060502584611241</v>
       </c>
     </row>
@@ -11108,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="G292" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H292" s="1"/>
@@ -11119,7 +11125,7 @@
         <v>1935</v>
       </c>
       <c r="K292" s="1">
-        <f>LOG10(J292)</f>
+        <f t="shared" si="8"/>
         <v>3.2866809693549301</v>
       </c>
     </row>
@@ -11141,7 +11147,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="G293" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.3875966866551806</v>
       </c>
       <c r="H293" s="1"/>
@@ -11152,7 +11158,7 @@
         <v>1722.5714285714287</v>
       </c>
       <c r="K293" s="1">
-        <f>LOG10(J293)</f>
+        <f t="shared" si="8"/>
         <v>3.2361772395150772</v>
       </c>
     </row>
@@ -11174,7 +11180,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G294" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.42053433528396511</v>
       </c>
       <c r="H294" s="1"/>
@@ -11185,7 +11191,7 @@
         <v>1817</v>
       </c>
       <c r="K294" s="1">
-        <f>LOG10(J294)</f>
+        <f t="shared" si="8"/>
         <v>3.2593549273080344</v>
       </c>
     </row>
@@ -11207,7 +11213,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G295" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H295" s="1"/>
@@ -11218,7 +11224,7 @@
         <v>2130.8571428571427</v>
       </c>
       <c r="K295" s="1">
-        <f>LOG10(J295)</f>
+        <f t="shared" si="8"/>
         <v>3.3285543346750126</v>
       </c>
     </row>
@@ -11240,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="G296" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H296" s="1"/>
@@ -11251,7 +11257,7 @@
         <v>2166</v>
       </c>
       <c r="K296" s="1">
-        <f>LOG10(J296)</f>
+        <f t="shared" si="8"/>
         <v>3.3356584522893016</v>
       </c>
     </row>
@@ -11273,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="G297" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H297" s="1"/>
@@ -11284,7 +11290,7 @@
         <v>1795</v>
       </c>
       <c r="K297" s="1">
-        <f>LOG10(J297)</f>
+        <f t="shared" si="8"/>
         <v>3.2540644529143381</v>
       </c>
     </row>
@@ -11306,7 +11312,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G298" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H298" s="1"/>
@@ -11317,7 +11323,7 @@
         <v>2437</v>
       </c>
       <c r="K298" s="1">
-        <f>LOG10(J298)</f>
+        <f t="shared" si="8"/>
         <v>3.3868555291847242</v>
       </c>
     </row>
@@ -11339,7 +11345,7 @@
         <v>0.5</v>
       </c>
       <c r="G299" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H299" s="1"/>
@@ -11350,7 +11356,7 @@
         <v>2048.625</v>
       </c>
       <c r="K299" s="1">
-        <f>LOG10(J299)</f>
+        <f t="shared" si="8"/>
         <v>3.3114624682423015</v>
       </c>
     </row>
@@ -11372,7 +11378,7 @@
         <v>0.6</v>
       </c>
       <c r="G300" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H300" s="1"/>
@@ -11383,7 +11389,7 @@
         <v>2653.4</v>
       </c>
       <c r="K300" s="1">
-        <f>LOG10(J300)</f>
+        <f t="shared" si="8"/>
         <v>3.4238027248025804</v>
       </c>
     </row>
@@ -11405,7 +11411,7 @@
         <v>0.75</v>
       </c>
       <c r="G301" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H301" s="1"/>
@@ -11416,7 +11422,7 @@
         <v>1643.875</v>
       </c>
       <c r="K301" s="1">
-        <f>LOG10(J301)</f>
+        <f t="shared" si="8"/>
         <v>3.2158687907744903</v>
       </c>
     </row>
@@ -11438,7 +11444,7 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="G302" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.63613206280501022</v>
       </c>
       <c r="H302" s="1"/>
@@ -11449,7 +11455,7 @@
         <v>1584.8235294117646</v>
       </c>
       <c r="K302" s="1">
-        <f>LOG10(J302)</f>
+        <f t="shared" si="8"/>
         <v>3.1999809104216026</v>
       </c>
     </row>
@@ -11471,7 +11477,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G303" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0068536854342678</v>
       </c>
       <c r="H303" s="1"/>
@@ -11482,7 +11488,7 @@
         <v>6279</v>
       </c>
       <c r="K303" s="1">
-        <f>LOG10(J303)</f>
+        <f t="shared" si="8"/>
         <v>3.7978904830583491</v>
       </c>
     </row>
@@ -11504,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="G304" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H304" s="1"/>
@@ -11515,7 +11521,7 @@
         <v>2584.8000000000002</v>
       </c>
       <c r="K304" s="1">
-        <f>LOG10(J304)</f>
+        <f t="shared" si="8"/>
         <v>3.4124269450095874</v>
       </c>
     </row>
@@ -11537,7 +11543,7 @@
         <v>0.625</v>
       </c>
       <c r="G305" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H305" s="1"/>
@@ -11548,7 +11554,7 @@
         <v>1861</v>
       </c>
       <c r="K305" s="1">
-        <f>LOG10(J305)</f>
+        <f t="shared" si="8"/>
         <v>3.2697463731307672</v>
       </c>
     </row>
@@ -11570,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="G306" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H306" s="1"/>
@@ -11581,7 +11587,7 @@
         <v>1356.6</v>
       </c>
       <c r="K306" s="1">
-        <f>LOG10(J306)</f>
+        <f t="shared" si="8"/>
         <v>3.1324518127290033</v>
       </c>
     </row>
@@ -11603,7 +11609,7 @@
         <v>0.875</v>
       </c>
       <c r="G307" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H307" s="1"/>
@@ -11614,7 +11620,7 @@
         <v>1545.125</v>
       </c>
       <c r="K307" s="1">
-        <f>LOG10(J307)</f>
+        <f t="shared" si="8"/>
         <v>3.1889636194335318</v>
       </c>
     </row>
@@ -11636,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="G308" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H308" s="1"/>
@@ -11647,7 +11653,7 @@
         <v>1382.6363636363637</v>
       </c>
       <c r="K308" s="1">
-        <f>LOG10(J308)</f>
+        <f t="shared" si="8"/>
         <v>3.1407079747357241</v>
       </c>
     </row>
@@ -11669,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="G309" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H309" s="1"/>
@@ -11680,7 +11686,7 @@
         <v>1325.375</v>
       </c>
       <c r="K309" s="1">
-        <f>LOG10(J309)</f>
+        <f t="shared" si="8"/>
         <v>3.1223387744152973</v>
       </c>
     </row>
@@ -11702,7 +11708,7 @@
         <v>0.875</v>
       </c>
       <c r="G310" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H310" s="1"/>
@@ -11713,7 +11719,7 @@
         <v>1292.875</v>
       </c>
       <c r="K310" s="1">
-        <f>LOG10(J310)</f>
+        <f t="shared" si="8"/>
         <v>3.1115565376920884</v>
       </c>
     </row>
@@ -11735,7 +11741,7 @@
         <v>0.875</v>
       </c>
       <c r="G311" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H311" s="1"/>
@@ -11746,7 +11752,7 @@
         <v>1633.125</v>
       </c>
       <c r="K311" s="1">
-        <f>LOG10(J311)</f>
+        <f t="shared" si="8"/>
         <v>3.213019427071401</v>
       </c>
     </row>
@@ -11768,7 +11774,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="G312" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.277953555066321</v>
       </c>
       <c r="H312" s="1"/>
@@ -11779,7 +11785,7 @@
         <v>1579.5833333333333</v>
       </c>
       <c r="K312" s="1">
-        <f>LOG10(J312)</f>
+        <f t="shared" si="8"/>
         <v>3.1985425427148284</v>
       </c>
     </row>
@@ -11801,7 +11807,7 @@
         <v>0.6</v>
       </c>
       <c r="G313" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H313" s="1"/>
@@ -11812,7 +11818,7 @@
         <v>1469.6</v>
       </c>
       <c r="K313" s="1">
-        <f>LOG10(J313)</f>
+        <f t="shared" si="8"/>
         <v>3.167199143297752</v>
       </c>
     </row>
@@ -11834,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="G314" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H314" s="1"/>
@@ -11845,7 +11851,7 @@
         <v>2027.6</v>
       </c>
       <c r="K314" s="1">
-        <f>LOG10(J314)</f>
+        <f t="shared" si="8"/>
         <v>3.3069822825513642</v>
       </c>
     </row>
@@ -11867,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="G315" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H315" s="1"/>
@@ -11878,7 +11884,7 @@
         <v>1100.2</v>
       </c>
       <c r="K315" s="1">
-        <f>LOG10(J315)</f>
+        <f t="shared" si="8"/>
         <v>3.041471640613747</v>
       </c>
     </row>
@@ -11900,7 +11906,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G316" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H316" s="1"/>
@@ -11911,7 +11917,7 @@
         <v>1527.5</v>
       </c>
       <c r="K316" s="1">
-        <f>LOG10(J316)</f>
+        <f t="shared" si="8"/>
         <v>3.183981218914592</v>
       </c>
     </row>
@@ -11933,7 +11939,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="G317" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.84106867056793033</v>
       </c>
       <c r="H317" s="1"/>
@@ -11944,7 +11950,7 @@
         <v>2297.5555555555557</v>
       </c>
       <c r="K317" s="1">
-        <f>LOG10(J317)</f>
+        <f t="shared" si="8"/>
         <v>3.3612660215508625</v>
       </c>
     </row>
@@ -11966,7 +11972,7 @@
         <v>0.5</v>
       </c>
       <c r="G318" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H318" s="1"/>
@@ -11977,7 +11983,7 @@
         <v>1912.1666666666667</v>
       </c>
       <c r="K318" s="1">
-        <f>LOG10(J318)</f>
+        <f t="shared" si="8"/>
         <v>3.2815257432011125</v>
       </c>
     </row>
@@ -11999,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="G319" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H319" s="1"/>
@@ -12010,7 +12016,7 @@
         <v>1542.2222222222222</v>
       </c>
       <c r="K319" s="1">
-        <f>LOG10(J319)</f>
+        <f t="shared" si="8"/>
         <v>3.1881469566795113</v>
       </c>
     </row>
@@ -12032,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="G320" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H320" s="1"/>
@@ -12043,7 +12049,7 @@
         <v>1033</v>
       </c>
       <c r="K320" s="1">
-        <f>LOG10(J320)</f>
+        <f t="shared" si="8"/>
         <v>3.0141003215196207</v>
       </c>
     </row>
@@ -12065,7 +12071,7 @@
         <v>0.875</v>
       </c>
       <c r="G321" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H321" s="1"/>
@@ -12076,7 +12082,7 @@
         <v>1724.75</v>
       </c>
       <c r="K321" s="1">
-        <f>LOG10(J321)</f>
+        <f t="shared" si="8"/>
         <v>3.236726153618632</v>
       </c>
     </row>
@@ -12098,7 +12104,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G322" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1302856637901981</v>
       </c>
       <c r="H322" s="1"/>
@@ -12109,7 +12115,7 @@
         <v>1258.2727272727273</v>
       </c>
       <c r="K322" s="1">
-        <f>LOG10(J322)</f>
+        <f t="shared" ref="K322:K385" si="10">LOG10(J322)</f>
         <v>3.0997747834880074</v>
       </c>
     </row>
@@ -12131,7 +12137,7 @@
         <v>0.75</v>
       </c>
       <c r="G323" s="1">
-        <f t="shared" ref="G323:G364" si="5">ASIN(SQRT(F323))</f>
+        <f t="shared" ref="G323:G364" si="11">ASIN(SQRT(F323))</f>
         <v>1.0471975511965976</v>
       </c>
       <c r="H323" s="1"/>
@@ -12142,7 +12148,7 @@
         <v>1372.5</v>
       </c>
       <c r="K323" s="1">
-        <f>LOG10(J323)</f>
+        <f t="shared" si="10"/>
         <v>3.1375123531221294</v>
       </c>
     </row>
@@ -12164,7 +12170,7 @@
         <v>0.6</v>
       </c>
       <c r="G324" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H324" s="1"/>
@@ -12175,7 +12181,7 @@
         <v>1623.6</v>
       </c>
       <c r="K324" s="1">
-        <f>LOG10(J324)</f>
+        <f t="shared" si="10"/>
         <v>3.2104790426452476</v>
       </c>
     </row>
@@ -12197,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H325" s="1"/>
@@ -12208,7 +12214,7 @@
         <v>1299.25</v>
       </c>
       <c r="K325" s="1">
-        <f>LOG10(J325)</f>
+        <f t="shared" si="10"/>
         <v>3.113692725494897</v>
       </c>
     </row>
@@ -12230,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H326" s="1"/>
@@ -12241,7 +12247,7 @@
         <v>998</v>
       </c>
       <c r="K326" s="1">
-        <f>LOG10(J326)</f>
+        <f t="shared" si="10"/>
         <v>2.999130541287371</v>
       </c>
     </row>
@@ -12263,7 +12269,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G327" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.61547970867038726</v>
       </c>
       <c r="H327" s="1"/>
@@ -12274,7 +12280,7 @@
         <v>1849.8333333333333</v>
       </c>
       <c r="K327" s="1">
-        <f>LOG10(J327)</f>
+        <f t="shared" si="10"/>
         <v>3.2671326010114918</v>
       </c>
     </row>
@@ -12296,7 +12302,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G328" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.61547970867038726</v>
       </c>
       <c r="H328" s="1"/>
@@ -12307,7 +12313,7 @@
         <v>2922.5555555555557</v>
       </c>
       <c r="K328" s="1">
-        <f>LOG10(J328)</f>
+        <f t="shared" si="10"/>
         <v>3.4657627755197264</v>
       </c>
     </row>
@@ -12329,7 +12335,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G329" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H329" s="1"/>
@@ -12340,7 +12346,7 @@
         <v>1471.5</v>
       </c>
       <c r="K329" s="1">
-        <f>LOG10(J329)</f>
+        <f t="shared" si="10"/>
         <v>3.1677602664356299</v>
       </c>
     </row>
@@ -12362,7 +12368,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="G330" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0799136485055854</v>
       </c>
       <c r="H330" s="1"/>
@@ -12373,7 +12379,7 @@
         <v>1461</v>
       </c>
       <c r="K330" s="1">
-        <f>LOG10(J330)</f>
+        <f t="shared" si="10"/>
         <v>3.1646502159342966</v>
       </c>
     </row>
@@ -12395,7 +12401,7 @@
         <v>0.75</v>
       </c>
       <c r="G331" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H331" s="1"/>
@@ -12406,7 +12412,7 @@
         <v>2191.875</v>
       </c>
       <c r="K331" s="1">
-        <f>LOG10(J331)</f>
+        <f t="shared" si="10"/>
         <v>3.3408157832255778</v>
       </c>
     </row>
@@ -12428,7 +12434,7 @@
         <v>0.5</v>
       </c>
       <c r="G332" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.78539816339744839</v>
       </c>
       <c r="H332" s="1"/>
@@ -12439,7 +12445,7 @@
         <v>2486.375</v>
       </c>
       <c r="K332" s="1">
-        <f>LOG10(J332)</f>
+        <f t="shared" si="10"/>
         <v>3.3955666303992018</v>
       </c>
     </row>
@@ -12461,7 +12467,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G333" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H333" s="1"/>
@@ -12472,7 +12478,7 @@
         <v>973.33333333333337</v>
       </c>
       <c r="K333" s="1">
-        <f>LOG10(J333)</f>
+        <f t="shared" si="10"/>
         <v>2.9882615967287558</v>
       </c>
     </row>
@@ -12494,7 +12500,7 @@
         <v>0.875</v>
       </c>
       <c r="G334" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H334" s="1"/>
@@ -12505,7 +12511,7 @@
         <v>1572.5</v>
       </c>
       <c r="K334" s="1">
-        <f>LOG10(J334)</f>
+        <f t="shared" si="10"/>
         <v>3.1965906541173066</v>
       </c>
     </row>
@@ -12527,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="G335" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H335" s="1"/>
@@ -12538,7 +12544,7 @@
         <v>1101</v>
       </c>
       <c r="K335" s="1">
-        <f>LOG10(J335)</f>
+        <f t="shared" si="10"/>
         <v>3.0417873189717519</v>
       </c>
     </row>
@@ -12560,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="G336" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H336" s="1"/>
@@ -12571,7 +12577,7 @@
         <v>1236.2</v>
       </c>
       <c r="K336" s="1">
-        <f>LOG10(J336)</f>
+        <f t="shared" si="10"/>
         <v>3.0920887392558067</v>
       </c>
     </row>
@@ -12593,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="G337" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H337" s="1"/>
@@ -12604,7 +12610,7 @@
         <v>1222</v>
       </c>
       <c r="K337" s="1">
-        <f>LOG10(J337)</f>
+        <f t="shared" si="10"/>
         <v>3.0870712059065353</v>
       </c>
     </row>
@@ -12626,7 +12632,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G338" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2309594173407747</v>
       </c>
       <c r="H338" s="1"/>
@@ -12637,7 +12643,7 @@
         <v>2261</v>
       </c>
       <c r="K338" s="1">
-        <f>LOG10(J338)</f>
+        <f t="shared" si="10"/>
         <v>3.3543005623453599</v>
       </c>
     </row>
@@ -12659,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="G339" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H339" s="1"/>
@@ -12670,7 +12676,7 @@
         <v>1738.2</v>
       </c>
       <c r="K339" s="1">
-        <f>LOG10(J339)</f>
+        <f t="shared" si="10"/>
         <v>3.2400997455874054</v>
       </c>
     </row>
@@ -12692,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H340" s="1"/>
@@ -12703,7 +12709,7 @@
         <v>2049.4444444444443</v>
       </c>
       <c r="K340" s="1">
-        <f>LOG10(J340)</f>
+        <f t="shared" si="10"/>
         <v>3.3116361501234972</v>
       </c>
     </row>
@@ -12725,7 +12731,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G341" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H341" s="1"/>
@@ -12736,7 +12742,7 @@
         <v>1505.4285714285713</v>
       </c>
       <c r="K341" s="1">
-        <f>LOG10(J341)</f>
+        <f t="shared" si="10"/>
         <v>3.1776601542225125</v>
       </c>
     </row>
@@ -12758,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="G342" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H342" s="1"/>
@@ -12769,7 +12775,7 @@
         <v>1365.375</v>
       </c>
       <c r="K342" s="1">
-        <f>LOG10(J342)</f>
+        <f t="shared" si="10"/>
         <v>3.1352519466616626</v>
       </c>
     </row>
@@ -12791,7 +12797,7 @@
         <v>0.75</v>
       </c>
       <c r="G343" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H343" s="1"/>
@@ -12802,7 +12808,7 @@
         <v>1766.5</v>
       </c>
       <c r="K343" s="1">
-        <f>LOG10(J343)</f>
+        <f t="shared" si="10"/>
         <v>3.2471136417708641</v>
       </c>
     </row>
@@ -12824,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="G344" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H344" s="1"/>
@@ -12835,7 +12841,7 @@
         <v>1532.8333333333333</v>
       </c>
       <c r="K344" s="1">
-        <f>LOG10(J344)</f>
+        <f t="shared" si="10"/>
         <v>3.1854949361011995</v>
       </c>
     </row>
@@ -12857,7 +12863,7 @@
         <v>0.625</v>
       </c>
       <c r="G345" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.91173829096848769</v>
       </c>
       <c r="H345" s="1"/>
@@ -12868,7 +12874,7 @@
         <v>1617.5</v>
       </c>
       <c r="K345" s="1">
-        <f>LOG10(J345)</f>
+        <f t="shared" si="10"/>
         <v>3.2088442893407381</v>
       </c>
     </row>
@@ -12890,7 +12896,7 @@
         <v>0.75</v>
       </c>
       <c r="G346" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H346" s="1"/>
@@ -12901,7 +12907,7 @@
         <v>1801.875</v>
       </c>
       <c r="K346" s="1">
-        <f>LOG10(J346)</f>
+        <f t="shared" si="10"/>
         <v>3.2557246597322829</v>
       </c>
     </row>
@@ -12923,7 +12929,7 @@
         <v>0.75</v>
       </c>
       <c r="G347" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H347" s="1"/>
@@ -12934,7 +12940,7 @@
         <v>2456.125</v>
       </c>
       <c r="K347" s="1">
-        <f>LOG10(J347)</f>
+        <f t="shared" si="10"/>
         <v>3.3902504656567523</v>
       </c>
     </row>
@@ -12956,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="G348" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H348" s="1"/>
@@ -12967,7 +12973,7 @@
         <v>1402.25</v>
       </c>
       <c r="K348" s="1">
-        <f>LOG10(J348)</f>
+        <f t="shared" si="10"/>
         <v>3.1468254486815543</v>
       </c>
     </row>
@@ -12989,7 +12995,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G349" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H349" s="1"/>
@@ -13000,7 +13006,7 @@
         <v>1812.3333333333333</v>
       </c>
       <c r="K349" s="1">
-        <f>LOG10(J349)</f>
+        <f t="shared" si="10"/>
         <v>3.2582380782820484</v>
       </c>
     </row>
@@ -13022,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="G350" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H350" s="1"/>
@@ -13033,7 +13039,7 @@
         <v>1464.3333333333333</v>
       </c>
       <c r="K350" s="1">
-        <f>LOG10(J350)</f>
+        <f t="shared" si="10"/>
         <v>3.1656399485456581</v>
       </c>
     </row>
@@ -13055,7 +13061,7 @@
         <v>0.8</v>
       </c>
       <c r="G351" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H351" s="1"/>
@@ -13066,7 +13072,7 @@
         <v>1726.4</v>
       </c>
       <c r="K351" s="1">
-        <f>LOG10(J351)</f>
+        <f t="shared" si="10"/>
         <v>3.2371414273388357</v>
       </c>
     </row>
@@ -13088,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="G352" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H352" s="1"/>
@@ -13099,7 +13105,7 @@
         <v>1534.75</v>
       </c>
       <c r="K352" s="1">
-        <f>LOG10(J352)</f>
+        <f t="shared" si="10"/>
         <v>3.1860376420523351</v>
       </c>
     </row>
@@ -13121,7 +13127,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G353" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.9553166181245093</v>
       </c>
       <c r="H353" s="1"/>
@@ -13132,7 +13138,7 @@
         <v>1642.5</v>
       </c>
       <c r="K353" s="1">
-        <f>LOG10(J353)</f>
+        <f t="shared" si="10"/>
         <v>3.2155053782318186</v>
       </c>
     </row>
@@ -13154,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="G354" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H354" s="1"/>
@@ -13165,7 +13171,7 @@
         <v>1588.625</v>
       </c>
       <c r="K354" s="1">
-        <f>LOG10(J354)</f>
+        <f t="shared" si="10"/>
         <v>3.201021392707025</v>
       </c>
     </row>
@@ -13187,7 +13193,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G355" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1502619915109316</v>
       </c>
       <c r="H355" s="1"/>
@@ -13198,7 +13204,7 @@
         <v>2106.3333333333335</v>
       </c>
       <c r="K355" s="1">
-        <f>LOG10(J355)</f>
+        <f t="shared" si="10"/>
         <v>3.3235271006443257</v>
       </c>
     </row>
@@ -13220,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="G356" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H356" s="1"/>
@@ -13231,7 +13237,7 @@
         <v>1452</v>
       </c>
       <c r="K356" s="1">
-        <f>LOG10(J356)</f>
+        <f t="shared" si="10"/>
         <v>3.1619666163640749</v>
       </c>
     </row>
@@ -13253,7 +13259,7 @@
         <v>0.875</v>
       </c>
       <c r="G357" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H357" s="1"/>
@@ -13264,7 +13270,7 @@
         <v>1783</v>
       </c>
       <c r="K357" s="1">
-        <f>LOG10(J357)</f>
+        <f t="shared" si="10"/>
         <v>3.2511513431753545</v>
       </c>
     </row>
@@ -13286,7 +13292,7 @@
         <v>0.875</v>
       </c>
       <c r="G358" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2094292028881888</v>
       </c>
       <c r="H358" s="1"/>
@@ -13297,7 +13303,7 @@
         <v>2225.25</v>
       </c>
       <c r="K358" s="1">
-        <f>LOG10(J358)</f>
+        <f t="shared" si="10"/>
         <v>3.347378809708542</v>
       </c>
     </row>
@@ -13319,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="H359" s="1"/>
@@ -13330,7 +13336,7 @@
         <v>1484.25</v>
       </c>
       <c r="K359" s="1">
-        <f>LOG10(J359)</f>
+        <f t="shared" si="10"/>
         <v>3.1715070575980961</v>
       </c>
     </row>
@@ -13352,7 +13358,7 @@
         <v>0.75</v>
       </c>
       <c r="G360" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="H360" s="1"/>
@@ -13363,7 +13369,7 @@
         <v>2182.4166666666665</v>
       </c>
       <c r="K360" s="1">
-        <f>LOG10(J360)</f>
+        <f t="shared" si="10"/>
         <v>3.3389376696065747</v>
       </c>
     </row>
@@ -13385,7 +13391,7 @@
         <v>0.8</v>
       </c>
       <c r="G361" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1071487177940904</v>
       </c>
       <c r="H361" s="1"/>
@@ -13396,7 +13402,7 @@
         <v>1696.2</v>
       </c>
       <c r="K361" s="1">
-        <f>LOG10(J361)</f>
+        <f t="shared" si="10"/>
         <v>3.2294770588731634</v>
       </c>
     </row>
@@ -13418,7 +13424,7 @@
         <v>0.6</v>
       </c>
       <c r="G362" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H362" s="1"/>
@@ -13429,7 +13435,7 @@
         <v>2568</v>
       </c>
       <c r="K362" s="1">
-        <f>LOG10(J362)</f>
+        <f t="shared" si="10"/>
         <v>3.4095950193968156</v>
       </c>
     </row>
@@ -13451,7 +13457,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G363" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1831996401397158</v>
       </c>
       <c r="H363" s="1"/>
@@ -13462,7 +13468,7 @@
         <v>1499.2857142857142</v>
       </c>
       <c r="K363" s="1">
-        <f>LOG10(J363)</f>
+        <f t="shared" si="10"/>
         <v>3.1758844029041624</v>
       </c>
     </row>
@@ -13484,7 +13490,7 @@
         <v>0.6</v>
       </c>
       <c r="G364" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.88607712379261372</v>
       </c>
       <c r="H364" s="1"/>
@@ -13495,7 +13501,7 @@
         <v>2244.4</v>
       </c>
       <c r="K364" s="1">
-        <f>LOG10(J364)</f>
+        <f t="shared" si="10"/>
         <v>3.3511002600314197</v>
       </c>
     </row>

--- a/mary/newratingspread_10.18.2019.xlsx
+++ b/mary/newratingspread_10.18.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mebar\Desktop\r classroom\data-wrangling-group-session-lsc-modelers\mary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A0FA2-3043-4ACE-9AB3-1C8B39857102}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16615B93-1D2D-4986-BEC1-824A0A6FE70E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A5D265AE-AF83-40AA-85F5-30933B50938E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Condition</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>LogRT</t>
-  </si>
-  <si>
-    <t>add</t>
   </si>
 </sst>
 </file>
@@ -474,9 +471,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
@@ -12115,7 +12110,7 @@
         <v>1258.2727272727273</v>
       </c>
       <c r="K322" s="1">
-        <f t="shared" ref="K322:K385" si="10">LOG10(J322)</f>
+        <f t="shared" ref="K322:K364" si="10">LOG10(J322)</f>
         <v>3.0997747834880074</v>
       </c>
     </row>
